--- a/LF/TAS/Senegal/sn_lf_tas_1_sites_202101.xlsx
+++ b/LF/TAS/Senegal/sn_lf_tas_1_sites_202101.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\LF\TAS\Senegal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED41737F-D271-4A7D-A715-444A44B58023}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{071A3488-F152-43A2-A943-5B452D3D6F9C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="259">
   <si>
     <t>form_title</t>
   </si>
@@ -281,12 +281,6 @@
     <t>select_one code_site_list</t>
   </si>
   <si>
-    <t>sn_lf_tas_1_sites_202101</t>
-  </si>
-  <si>
-    <t>(Janvier 2021) 1. TAS FL - Formulaire Site</t>
-  </si>
-  <si>
     <t>Tamba</t>
   </si>
   <si>
@@ -675,6 +669,144 @@
   </si>
   <si>
     <t>Village population or total number of pupils</t>
+  </si>
+  <si>
+    <t>. &lt;= ${c_population}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le nombre de participants admissibles doit toujours être inférieur au nombre d’élèves de l’école </t>
+  </si>
+  <si>
+    <t>The number of eligible participants must always be less than the number of students in the school</t>
+  </si>
+  <si>
+    <t>sn_lf_tas_1_sites_202101_v2</t>
+  </si>
+  <si>
+    <t>(Janvier 2021) 1. TAS FL - Formulaire Site V2</t>
+  </si>
+  <si>
+    <t>Toumboura</t>
+  </si>
+  <si>
+    <t>BELE</t>
+  </si>
+  <si>
+    <t>DAHARATOU</t>
+  </si>
+  <si>
+    <t>FETE GOLOMBI</t>
+  </si>
+  <si>
+    <t>GOUREL BOCAR SAMBA</t>
+  </si>
+  <si>
+    <t>GUITTA</t>
+  </si>
+  <si>
+    <t>NAYES</t>
+  </si>
+  <si>
+    <t>SELING</t>
+  </si>
+  <si>
+    <t>SENOUDEBOU</t>
+  </si>
+  <si>
+    <t>WOUBOWOL</t>
+  </si>
+  <si>
+    <t>SABOU CIRE</t>
+  </si>
+  <si>
+    <t>TAME</t>
+  </si>
+  <si>
+    <t>ALAHINA BOCAR</t>
+  </si>
+  <si>
+    <t>SINTHIOU DIOYE</t>
+  </si>
+  <si>
+    <t>MADINA FOULBE</t>
+  </si>
+  <si>
+    <t>DYALA BAKARY</t>
+  </si>
+  <si>
+    <t>HEREMAKONO</t>
+  </si>
+  <si>
+    <t>SANDINCOUNDA</t>
+  </si>
+  <si>
+    <t>SENO KARE</t>
+  </si>
+  <si>
+    <t>DIAM WELY PATHE MBAYE</t>
+  </si>
+  <si>
+    <t>GUEDEKHO</t>
+  </si>
+  <si>
+    <t>KOUNDEL</t>
+  </si>
+  <si>
+    <t>SAMBA COLO</t>
+  </si>
+  <si>
+    <t>SINTHIOU SAMBA NDIARDE</t>
+  </si>
+  <si>
+    <t>SITABANTA</t>
+  </si>
+  <si>
+    <t>TAKHOUTALA</t>
+  </si>
+  <si>
+    <t>YOUPE HAMADY</t>
+  </si>
+  <si>
+    <t>BANCOUBA</t>
+  </si>
+  <si>
+    <t>DIDE GASSAMA</t>
+  </si>
+  <si>
+    <t>GOUDANPHA</t>
+  </si>
+  <si>
+    <t>TOUMBOURA</t>
+  </si>
+  <si>
+    <t>Elhadji Fonsa Ly</t>
+  </si>
+  <si>
+    <t>Lougué Nialby</t>
+  </si>
+  <si>
+    <t>Bountounco</t>
+  </si>
+  <si>
+    <t>Médina Diakha Ouly</t>
+  </si>
+  <si>
+    <t>Saré Thilal</t>
+  </si>
+  <si>
+    <t>Sinthiou Souka</t>
+  </si>
+  <si>
+    <t>Sare Boure</t>
+  </si>
+  <si>
+    <t>Village 8</t>
+  </si>
+  <si>
+    <t>Paddah Peulh</t>
+  </si>
+  <si>
+    <t>Jean Paul 2</t>
   </si>
 </sst>
 </file>
@@ -1182,11 +1314,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1302,14 +1434,14 @@
         <v>72</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="12"/>
@@ -1327,17 +1459,17 @@
     </row>
     <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>199</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>201</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="11" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="12"/>
@@ -1352,7 +1484,7 @@
       <c r="N4" s="12"/>
       <c r="O4" s="12"/>
       <c r="P4" s="12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1363,11 +1495,11 @@
         <v>69</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="11" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="12"/>
@@ -1382,7 +1514,7 @@
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
       <c r="P5" s="12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -1393,26 +1525,26 @@
         <v>78</v>
       </c>
       <c r="C6" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="E6" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="F6" s="11" t="s">
         <v>206</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>208</v>
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="J6" s="9" t="s">
         <v>209</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>211</v>
       </c>
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
@@ -1489,7 +1621,7 @@
         <v>21</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="16" t="s">
@@ -1527,9 +1659,15 @@
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
+      <c r="H10" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>214</v>
+      </c>
       <c r="K10" s="1" t="s">
         <v>65</v>
       </c>
@@ -1677,11 +1815,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G201"/>
+  <dimension ref="A1:G283"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A282" sqref="A282:XFD309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1690,7 +1828,8 @@
     <col min="2" max="2" width="39.625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="31.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.875" customWidth="1"/>
+    <col min="6" max="6" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1710,7 +1849,7 @@
         <v>68</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G1" s="21" t="s">
         <v>76</v>
@@ -1755,13 +1894,13 @@
         <v>68</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E4" s="32"/>
       <c r="F4" s="31"/>
@@ -1769,16 +1908,16 @@
     </row>
     <row r="5" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E5" s="32" t="s">
         <v>66</v>
@@ -1788,16 +1927,16 @@
     </row>
     <row r="6" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E6" s="32" t="s">
         <v>66</v>
@@ -1807,16 +1946,16 @@
     </row>
     <row r="7" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="E7" s="32" t="s">
         <v>66</v>
@@ -1826,16 +1965,16 @@
     </row>
     <row r="8" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E8" s="32" t="s">
         <v>66</v>
@@ -1845,16 +1984,16 @@
     </row>
     <row r="9" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E9" s="32" t="s">
         <v>66</v>
@@ -1864,54 +2003,54 @@
     </row>
     <row r="10" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F10" s="31"/>
       <c r="G10" s="31"/>
     </row>
     <row r="11" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>92</v>
+        <v>218</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>92</v>
+        <v>218</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>92</v>
+        <v>218</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F11" s="31"/>
       <c r="G11" s="31"/>
     </row>
     <row r="12" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E12" s="32" t="s">
         <v>67</v>
@@ -1921,16 +2060,16 @@
     </row>
     <row r="13" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E13" s="32" t="s">
         <v>67</v>
@@ -1940,16 +2079,16 @@
     </row>
     <row r="14" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E14" s="32" t="s">
         <v>67</v>
@@ -1959,16 +2098,16 @@
     </row>
     <row r="15" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="32" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E15" s="32" t="s">
         <v>67</v>
@@ -1978,16 +2117,16 @@
     </row>
     <row r="16" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="32" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E16" s="32" t="s">
         <v>67</v>
@@ -1996,16 +2135,16 @@
     </row>
     <row r="17" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E17" s="32" t="s">
         <v>67</v>
@@ -2014,16 +2153,16 @@
     </row>
     <row r="18" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="32" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E18" s="32" t="s">
         <v>67</v>
@@ -2032,16 +2171,16 @@
     </row>
     <row r="19" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="32" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E19" s="32" t="s">
         <v>67</v>
@@ -2050,218 +2189,218 @@
     </row>
     <row r="20" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="32" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E20" s="32" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="F20" s="31"/>
     </row>
     <row r="21" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="32" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E21" s="32" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="F21" s="31"/>
     </row>
     <row r="22" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="32" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E22" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F22" s="31"/>
     </row>
     <row r="23" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="32" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B23" s="31" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E23" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F23" s="31"/>
     </row>
     <row r="24" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="32" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E24" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F24" s="31"/>
     </row>
     <row r="25" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E25" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F25" s="31"/>
     </row>
     <row r="26" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="32" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D26" s="29" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E26" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F26" s="31"/>
     </row>
     <row r="27" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="32" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D27" s="29" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E27" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F27" s="31"/>
     </row>
     <row r="28" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="32" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B28" s="31" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E28" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F28" s="31"/>
     </row>
     <row r="29" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="32" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D29" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="E29" s="32"/>
-      <c r="F29" s="31" t="s">
-        <v>86</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="E29" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F29" s="31"/>
     </row>
     <row r="30" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="32" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="B30" s="31" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D30" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="E30" s="32"/>
-      <c r="F30" s="31" t="s">
-        <v>86</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="E30" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F30" s="31"/>
     </row>
     <row r="31" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="32" t="s">
         <v>76</v>
       </c>
       <c r="B31" s="31" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C31" s="28" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D31" s="29" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E31" s="32"/>
       <c r="F31" s="31" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -2269,17 +2408,17 @@
         <v>76</v>
       </c>
       <c r="B32" s="31" t="s">
-        <v>114</v>
+        <v>219</v>
       </c>
       <c r="C32" s="28" t="s">
-        <v>114</v>
+        <v>219</v>
       </c>
       <c r="D32" s="29" t="s">
-        <v>114</v>
+        <v>219</v>
       </c>
       <c r="E32" s="32"/>
       <c r="F32" s="31" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -2287,17 +2426,17 @@
         <v>76</v>
       </c>
       <c r="B33" s="31" t="s">
-        <v>115</v>
+        <v>220</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>115</v>
+        <v>220</v>
       </c>
       <c r="D33" s="29" t="s">
-        <v>115</v>
+        <v>220</v>
       </c>
       <c r="E33" s="32"/>
       <c r="F33" s="31" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -2305,17 +2444,17 @@
         <v>76</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C34" s="28" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D34" s="29" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E34" s="32"/>
       <c r="F34" s="31" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -2323,17 +2462,17 @@
         <v>76</v>
       </c>
       <c r="B35" s="31" t="s">
-        <v>117</v>
+        <v>221</v>
       </c>
       <c r="C35" s="28" t="s">
-        <v>117</v>
+        <v>221</v>
       </c>
       <c r="D35" s="29" t="s">
-        <v>117</v>
+        <v>221</v>
       </c>
       <c r="E35" s="32"/>
       <c r="F35" s="31" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -2341,17 +2480,17 @@
         <v>76</v>
       </c>
       <c r="B36" s="31" t="s">
-        <v>118</v>
+        <v>222</v>
       </c>
       <c r="C36" s="28" t="s">
-        <v>118</v>
+        <v>222</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>118</v>
+        <v>222</v>
       </c>
       <c r="E36" s="32"/>
       <c r="F36" s="31" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -2359,17 +2498,17 @@
         <v>76</v>
       </c>
       <c r="B37" s="31" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C37" s="28" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D37" s="29" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="E37" s="32"/>
       <c r="F37" s="31" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -2377,17 +2516,17 @@
         <v>76</v>
       </c>
       <c r="B38" s="31" t="s">
-        <v>120</v>
+        <v>223</v>
       </c>
       <c r="C38" s="28" t="s">
-        <v>120</v>
+        <v>223</v>
       </c>
       <c r="D38" s="29" t="s">
-        <v>120</v>
+        <v>223</v>
       </c>
       <c r="E38" s="32"/>
       <c r="F38" s="31" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -2395,17 +2534,17 @@
         <v>76</v>
       </c>
       <c r="B39" s="31" t="s">
-        <v>121</v>
+        <v>224</v>
       </c>
       <c r="C39" s="28" t="s">
-        <v>121</v>
+        <v>224</v>
       </c>
       <c r="D39" s="29" t="s">
-        <v>121</v>
+        <v>224</v>
       </c>
       <c r="E39" s="32"/>
       <c r="F39" s="31" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -2413,17 +2552,17 @@
         <v>76</v>
       </c>
       <c r="B40" s="31" t="s">
-        <v>122</v>
+        <v>225</v>
       </c>
       <c r="C40" s="28" t="s">
-        <v>122</v>
+        <v>225</v>
       </c>
       <c r="D40" s="29" t="s">
-        <v>122</v>
+        <v>225</v>
       </c>
       <c r="E40" s="32"/>
       <c r="F40" s="31" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -2431,17 +2570,17 @@
         <v>76</v>
       </c>
       <c r="B41" s="31" t="s">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="C41" s="28" t="s">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="D41" s="29" t="s">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="E41" s="32"/>
       <c r="F41" s="31" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -2449,17 +2588,17 @@
         <v>76</v>
       </c>
       <c r="B42" s="31" t="s">
-        <v>124</v>
+        <v>227</v>
       </c>
       <c r="C42" s="28" t="s">
-        <v>124</v>
+        <v>227</v>
       </c>
       <c r="D42" s="29" t="s">
-        <v>124</v>
+        <v>227</v>
       </c>
       <c r="E42" s="32"/>
       <c r="F42" s="31" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -2467,17 +2606,17 @@
         <v>76</v>
       </c>
       <c r="B43" s="31" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="C43" s="28" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="D43" s="29" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="E43" s="32"/>
       <c r="F43" s="31" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -2485,17 +2624,17 @@
         <v>76</v>
       </c>
       <c r="B44" s="31" t="s">
-        <v>126</v>
+        <v>228</v>
       </c>
       <c r="C44" s="28" t="s">
-        <v>126</v>
+        <v>228</v>
       </c>
       <c r="D44" s="29" t="s">
-        <v>126</v>
+        <v>228</v>
       </c>
       <c r="E44" s="32"/>
       <c r="F44" s="31" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -2503,17 +2642,17 @@
         <v>76</v>
       </c>
       <c r="B45" s="31" t="s">
-        <v>127</v>
+        <v>229</v>
       </c>
       <c r="C45" s="28" t="s">
-        <v>127</v>
+        <v>229</v>
       </c>
       <c r="D45" s="29" t="s">
-        <v>127</v>
+        <v>229</v>
       </c>
       <c r="E45" s="32"/>
       <c r="F45" s="31" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -2521,17 +2660,17 @@
         <v>76</v>
       </c>
       <c r="B46" s="31" t="s">
-        <v>128</v>
+        <v>230</v>
       </c>
       <c r="C46" s="28" t="s">
-        <v>128</v>
+        <v>230</v>
       </c>
       <c r="D46" s="29" t="s">
-        <v>128</v>
+        <v>230</v>
       </c>
       <c r="E46" s="32"/>
       <c r="F46" s="31" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -2539,17 +2678,17 @@
         <v>76</v>
       </c>
       <c r="B47" s="31" t="s">
-        <v>129</v>
+        <v>231</v>
       </c>
       <c r="C47" s="28" t="s">
-        <v>129</v>
+        <v>231</v>
       </c>
       <c r="D47" s="29" t="s">
-        <v>129</v>
+        <v>231</v>
       </c>
       <c r="E47" s="32"/>
       <c r="F47" s="31" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -2557,17 +2696,17 @@
         <v>76</v>
       </c>
       <c r="B48" s="31" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="C48" s="28" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="D48" s="29" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="E48" s="32"/>
       <c r="F48" s="31" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="49" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -2575,17 +2714,17 @@
         <v>76</v>
       </c>
       <c r="B49" s="31" t="s">
-        <v>131</v>
+        <v>232</v>
       </c>
       <c r="C49" s="28" t="s">
-        <v>131</v>
+        <v>232</v>
       </c>
       <c r="D49" s="29" t="s">
-        <v>131</v>
+        <v>232</v>
       </c>
       <c r="E49" s="32"/>
       <c r="F49" s="31" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="50" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -2593,17 +2732,17 @@
         <v>76</v>
       </c>
       <c r="B50" s="31" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="C50" s="28" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="D50" s="29" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="E50" s="32"/>
       <c r="F50" s="31" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="51" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -2611,17 +2750,17 @@
         <v>76</v>
       </c>
       <c r="B51" s="31" t="s">
-        <v>133</v>
+        <v>233</v>
       </c>
       <c r="C51" s="28" t="s">
-        <v>133</v>
+        <v>233</v>
       </c>
       <c r="D51" s="29" t="s">
-        <v>133</v>
+        <v>233</v>
       </c>
       <c r="E51" s="32"/>
       <c r="F51" s="31" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -2629,17 +2768,17 @@
         <v>76</v>
       </c>
       <c r="B52" s="31" t="s">
-        <v>134</v>
+        <v>234</v>
       </c>
       <c r="C52" s="28" t="s">
-        <v>134</v>
+        <v>234</v>
       </c>
       <c r="D52" s="29" t="s">
-        <v>134</v>
+        <v>234</v>
       </c>
       <c r="E52" s="32"/>
       <c r="F52" s="31" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="53" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -2647,17 +2786,17 @@
         <v>76</v>
       </c>
       <c r="B53" s="31" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="C53" s="28" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="D53" s="29" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="E53" s="32"/>
       <c r="F53" s="31" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="54" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -2665,17 +2804,17 @@
         <v>76</v>
       </c>
       <c r="B54" s="31" t="s">
-        <v>136</v>
+        <v>235</v>
       </c>
       <c r="C54" s="28" t="s">
-        <v>136</v>
+        <v>235</v>
       </c>
       <c r="D54" s="29" t="s">
-        <v>136</v>
+        <v>235</v>
       </c>
       <c r="E54" s="32"/>
       <c r="F54" s="31" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="55" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -2683,17 +2822,17 @@
         <v>76</v>
       </c>
       <c r="B55" s="31" t="s">
-        <v>137</v>
+        <v>236</v>
       </c>
       <c r="C55" s="28" t="s">
-        <v>137</v>
+        <v>236</v>
       </c>
       <c r="D55" s="29" t="s">
-        <v>137</v>
+        <v>236</v>
       </c>
       <c r="E55" s="32"/>
       <c r="F55" s="31" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="56" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -2701,17 +2840,17 @@
         <v>76</v>
       </c>
       <c r="B56" s="31" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="C56" s="28" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="D56" s="29" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="E56" s="32"/>
       <c r="F56" s="31" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="57" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -2719,17 +2858,17 @@
         <v>76</v>
       </c>
       <c r="B57" s="31" t="s">
-        <v>139</v>
+        <v>237</v>
       </c>
       <c r="C57" s="28" t="s">
-        <v>139</v>
+        <v>237</v>
       </c>
       <c r="D57" s="29" t="s">
-        <v>139</v>
+        <v>237</v>
       </c>
       <c r="E57" s="32"/>
       <c r="F57" s="31" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -2737,17 +2876,17 @@
         <v>76</v>
       </c>
       <c r="B58" s="31" t="s">
-        <v>140</v>
+        <v>238</v>
       </c>
       <c r="C58" s="28" t="s">
-        <v>140</v>
+        <v>238</v>
       </c>
       <c r="D58" s="29" t="s">
-        <v>140</v>
+        <v>238</v>
       </c>
       <c r="E58" s="32"/>
       <c r="F58" s="31" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="59" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -2755,17 +2894,17 @@
         <v>76</v>
       </c>
       <c r="B59" s="31" t="s">
-        <v>141</v>
+        <v>239</v>
       </c>
       <c r="C59" s="28" t="s">
-        <v>141</v>
+        <v>239</v>
       </c>
       <c r="D59" s="29" t="s">
-        <v>141</v>
+        <v>239</v>
       </c>
       <c r="E59" s="32"/>
       <c r="F59" s="31" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="60" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -2773,17 +2912,17 @@
         <v>76</v>
       </c>
       <c r="B60" s="31" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="C60" s="28" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="D60" s="29" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="E60" s="32"/>
       <c r="F60" s="31" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="61" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -2791,17 +2930,17 @@
         <v>76</v>
       </c>
       <c r="B61" s="31" t="s">
-        <v>143</v>
+        <v>240</v>
       </c>
       <c r="C61" s="28" t="s">
-        <v>143</v>
+        <v>240</v>
       </c>
       <c r="D61" s="29" t="s">
-        <v>143</v>
+        <v>240</v>
       </c>
       <c r="E61" s="32"/>
       <c r="F61" s="31" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="62" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -2809,17 +2948,17 @@
         <v>76</v>
       </c>
       <c r="B62" s="31" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="C62" s="28" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="D62" s="29" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="E62" s="32"/>
       <c r="F62" s="31" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="63" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -2827,17 +2966,17 @@
         <v>76</v>
       </c>
       <c r="B63" s="31" t="s">
-        <v>145</v>
+        <v>241</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>145</v>
+        <v>241</v>
       </c>
       <c r="D63" s="29" t="s">
-        <v>145</v>
+        <v>241</v>
       </c>
       <c r="E63" s="32"/>
       <c r="F63" s="31" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="64" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -2845,17 +2984,17 @@
         <v>76</v>
       </c>
       <c r="B64" s="31" t="s">
-        <v>146</v>
+        <v>242</v>
       </c>
       <c r="C64" s="28" t="s">
-        <v>146</v>
+        <v>242</v>
       </c>
       <c r="D64" s="29" t="s">
-        <v>146</v>
+        <v>242</v>
       </c>
       <c r="E64" s="32"/>
       <c r="F64" s="31" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="65" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -2863,17 +3002,17 @@
         <v>76</v>
       </c>
       <c r="B65" s="31" t="s">
-        <v>147</v>
+        <v>243</v>
       </c>
       <c r="C65" s="28" t="s">
-        <v>147</v>
+        <v>243</v>
       </c>
       <c r="D65" s="29" t="s">
-        <v>147</v>
+        <v>243</v>
       </c>
       <c r="E65" s="32"/>
       <c r="F65" s="31" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="66" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -2881,17 +3020,17 @@
         <v>76</v>
       </c>
       <c r="B66" s="31" t="s">
-        <v>148</v>
+        <v>244</v>
       </c>
       <c r="C66" s="28" t="s">
-        <v>148</v>
+        <v>244</v>
       </c>
       <c r="D66" s="29" t="s">
-        <v>148</v>
+        <v>244</v>
       </c>
       <c r="E66" s="32"/>
       <c r="F66" s="31" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="67" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -2899,17 +3038,17 @@
         <v>76</v>
       </c>
       <c r="B67" s="31" t="s">
-        <v>149</v>
+        <v>245</v>
       </c>
       <c r="C67" s="28" t="s">
-        <v>149</v>
+        <v>245</v>
       </c>
       <c r="D67" s="29" t="s">
-        <v>149</v>
+        <v>245</v>
       </c>
       <c r="E67" s="32"/>
       <c r="F67" s="31" t="s">
-        <v>98</v>
+        <v>218</v>
       </c>
     </row>
     <row r="68" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -2917,17 +3056,17 @@
         <v>76</v>
       </c>
       <c r="B68" s="31" t="s">
-        <v>150</v>
+        <v>246</v>
       </c>
       <c r="C68" s="28" t="s">
-        <v>150</v>
+        <v>246</v>
       </c>
       <c r="D68" s="29" t="s">
-        <v>150</v>
+        <v>246</v>
       </c>
       <c r="E68" s="32"/>
       <c r="F68" s="31" t="s">
-        <v>98</v>
+        <v>218</v>
       </c>
     </row>
     <row r="69" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -2935,17 +3074,17 @@
         <v>76</v>
       </c>
       <c r="B69" s="31" t="s">
-        <v>151</v>
+        <v>247</v>
       </c>
       <c r="C69" s="28" t="s">
-        <v>151</v>
+        <v>247</v>
       </c>
       <c r="D69" s="29" t="s">
-        <v>151</v>
+        <v>247</v>
       </c>
       <c r="E69" s="32"/>
       <c r="F69" s="31" t="s">
-        <v>98</v>
+        <v>218</v>
       </c>
     </row>
     <row r="70" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -2953,17 +3092,17 @@
         <v>76</v>
       </c>
       <c r="B70" s="31" t="s">
-        <v>152</v>
+        <v>248</v>
       </c>
       <c r="C70" s="28" t="s">
-        <v>152</v>
+        <v>248</v>
       </c>
       <c r="D70" s="29" t="s">
-        <v>152</v>
+        <v>248</v>
       </c>
       <c r="E70" s="32"/>
       <c r="F70" s="31" t="s">
-        <v>98</v>
+        <v>218</v>
       </c>
     </row>
     <row r="71" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -2971,17 +3110,17 @@
         <v>76</v>
       </c>
       <c r="B71" s="31" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="C71" s="28" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="D71" s="29" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="E71" s="32"/>
       <c r="F71" s="31" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="72" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -2989,17 +3128,17 @@
         <v>76</v>
       </c>
       <c r="B72" s="31" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="C72" s="28" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="D72" s="29" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="E72" s="32"/>
       <c r="F72" s="31" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="73" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -3007,17 +3146,17 @@
         <v>76</v>
       </c>
       <c r="B73" s="31" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="C73" s="28" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="D73" s="29" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="E73" s="32"/>
       <c r="F73" s="31" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -3025,17 +3164,17 @@
         <v>76</v>
       </c>
       <c r="B74" s="31" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="C74" s="28" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="D74" s="29" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="E74" s="32"/>
       <c r="F74" s="31" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -3043,17 +3182,17 @@
         <v>76</v>
       </c>
       <c r="B75" s="31" t="s">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="C75" s="28" t="s">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="D75" s="29" t="s">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="E75" s="32"/>
       <c r="F75" s="31" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="76" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -3061,17 +3200,17 @@
         <v>76</v>
       </c>
       <c r="B76" s="31" t="s">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c r="C76" s="28" t="s">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c r="D76" s="29" t="s">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c r="E76" s="32"/>
       <c r="F76" s="31" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -3079,17 +3218,17 @@
         <v>76</v>
       </c>
       <c r="B77" s="31" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="C77" s="28" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="D77" s="29" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="E77" s="32"/>
       <c r="F77" s="31" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -3097,17 +3236,17 @@
         <v>76</v>
       </c>
       <c r="B78" s="31" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="C78" s="28" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="D78" s="29" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="E78" s="32"/>
       <c r="F78" s="31" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -3115,17 +3254,17 @@
         <v>76</v>
       </c>
       <c r="B79" s="31" t="s">
-        <v>161</v>
+        <v>127</v>
       </c>
       <c r="C79" s="28" t="s">
-        <v>161</v>
+        <v>127</v>
       </c>
       <c r="D79" s="29" t="s">
-        <v>161</v>
+        <v>127</v>
       </c>
       <c r="E79" s="32"/>
       <c r="F79" s="31" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="80" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -3133,17 +3272,17 @@
         <v>76</v>
       </c>
       <c r="B80" s="31" t="s">
-        <v>162</v>
+        <v>128</v>
       </c>
       <c r="C80" s="28" t="s">
-        <v>162</v>
+        <v>128</v>
       </c>
       <c r="D80" s="29" t="s">
-        <v>162</v>
+        <v>128</v>
       </c>
       <c r="E80" s="32"/>
       <c r="F80" s="31" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="81" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -3151,17 +3290,17 @@
         <v>76</v>
       </c>
       <c r="B81" s="31" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="C81" s="28" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D81" s="29" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="E81" s="32"/>
       <c r="F81" s="31" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="82" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -3169,17 +3308,17 @@
         <v>76</v>
       </c>
       <c r="B82" s="31" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="C82" s="28" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="D82" s="29" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="E82" s="32"/>
       <c r="F82" s="31" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="83" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -3187,17 +3326,17 @@
         <v>76</v>
       </c>
       <c r="B83" s="31" t="s">
-        <v>165</v>
+        <v>131</v>
       </c>
       <c r="C83" s="28" t="s">
-        <v>165</v>
+        <v>131</v>
       </c>
       <c r="D83" s="29" t="s">
-        <v>165</v>
+        <v>131</v>
       </c>
       <c r="E83" s="32"/>
       <c r="F83" s="31" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="84" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -3205,17 +3344,17 @@
         <v>76</v>
       </c>
       <c r="B84" s="31" t="s">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="C84" s="28" t="s">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="D84" s="29" t="s">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="E84" s="32"/>
       <c r="F84" s="31" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="85" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -3223,17 +3362,17 @@
         <v>76</v>
       </c>
       <c r="B85" s="31" t="s">
-        <v>167</v>
+        <v>133</v>
       </c>
       <c r="C85" s="28" t="s">
-        <v>167</v>
+        <v>133</v>
       </c>
       <c r="D85" s="29" t="s">
-        <v>167</v>
+        <v>133</v>
       </c>
       <c r="E85" s="32"/>
       <c r="F85" s="31" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="86" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -3241,17 +3380,17 @@
         <v>76</v>
       </c>
       <c r="B86" s="31" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="C86" s="28" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="D86" s="29" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="E86" s="32"/>
       <c r="F86" s="31" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="87" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -3259,17 +3398,17 @@
         <v>76</v>
       </c>
       <c r="B87" s="31" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="C87" s="28" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="D87" s="29" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="E87" s="32"/>
       <c r="F87" s="31" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="88" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -3277,17 +3416,17 @@
         <v>76</v>
       </c>
       <c r="B88" s="31" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="C88" s="28" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="D88" s="29" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="E88" s="32"/>
       <c r="F88" s="31" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="89" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -3295,17 +3434,17 @@
         <v>76</v>
       </c>
       <c r="B89" s="31" t="s">
-        <v>171</v>
+        <v>137</v>
       </c>
       <c r="C89" s="28" t="s">
-        <v>171</v>
+        <v>137</v>
       </c>
       <c r="D89" s="29" t="s">
-        <v>171</v>
+        <v>137</v>
       </c>
       <c r="E89" s="32"/>
       <c r="F89" s="31" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="90" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -3313,17 +3452,17 @@
         <v>76</v>
       </c>
       <c r="B90" s="31" t="s">
-        <v>172</v>
+        <v>138</v>
       </c>
       <c r="C90" s="28" t="s">
-        <v>172</v>
+        <v>138</v>
       </c>
       <c r="D90" s="29" t="s">
-        <v>172</v>
+        <v>138</v>
       </c>
       <c r="E90" s="32"/>
       <c r="F90" s="31" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="91" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -3331,17 +3470,17 @@
         <v>76</v>
       </c>
       <c r="B91" s="31" t="s">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="C91" s="28" t="s">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="D91" s="29" t="s">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="E91" s="32"/>
       <c r="F91" s="31" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="92" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -3349,17 +3488,17 @@
         <v>76</v>
       </c>
       <c r="B92" s="31" t="s">
-        <v>174</v>
+        <v>140</v>
       </c>
       <c r="C92" s="28" t="s">
-        <v>174</v>
+        <v>140</v>
       </c>
       <c r="D92" s="29" t="s">
-        <v>174</v>
+        <v>140</v>
       </c>
       <c r="E92" s="32"/>
       <c r="F92" s="31" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="93" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -3367,17 +3506,17 @@
         <v>76</v>
       </c>
       <c r="B93" s="31" t="s">
-        <v>175</v>
+        <v>141</v>
       </c>
       <c r="C93" s="28" t="s">
-        <v>175</v>
+        <v>141</v>
       </c>
       <c r="D93" s="29" t="s">
-        <v>175</v>
+        <v>141</v>
       </c>
       <c r="E93" s="32"/>
       <c r="F93" s="31" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="94" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -3385,17 +3524,17 @@
         <v>76</v>
       </c>
       <c r="B94" s="31" t="s">
-        <v>176</v>
+        <v>142</v>
       </c>
       <c r="C94" s="28" t="s">
-        <v>176</v>
+        <v>142</v>
       </c>
       <c r="D94" s="29" t="s">
-        <v>176</v>
+        <v>142</v>
       </c>
       <c r="E94" s="32"/>
       <c r="F94" s="31" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="95" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -3403,17 +3542,17 @@
         <v>76</v>
       </c>
       <c r="B95" s="31" t="s">
-        <v>177</v>
+        <v>143</v>
       </c>
       <c r="C95" s="28" t="s">
-        <v>177</v>
+        <v>143</v>
       </c>
       <c r="D95" s="29" t="s">
-        <v>177</v>
+        <v>143</v>
       </c>
       <c r="E95" s="32"/>
       <c r="F95" s="31" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="96" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -3421,17 +3560,17 @@
         <v>76</v>
       </c>
       <c r="B96" s="31" t="s">
-        <v>178</v>
+        <v>144</v>
       </c>
       <c r="C96" s="28" t="s">
-        <v>178</v>
+        <v>144</v>
       </c>
       <c r="D96" s="29" t="s">
-        <v>178</v>
+        <v>144</v>
       </c>
       <c r="E96" s="32"/>
       <c r="F96" s="31" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="97" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -3439,17 +3578,17 @@
         <v>76</v>
       </c>
       <c r="B97" s="31" t="s">
-        <v>179</v>
+        <v>145</v>
       </c>
       <c r="C97" s="28" t="s">
-        <v>179</v>
+        <v>145</v>
       </c>
       <c r="D97" s="29" t="s">
-        <v>179</v>
+        <v>145</v>
       </c>
       <c r="E97" s="32"/>
       <c r="F97" s="31" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="98" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -3457,17 +3596,17 @@
         <v>76</v>
       </c>
       <c r="B98" s="31" t="s">
-        <v>180</v>
+        <v>146</v>
       </c>
       <c r="C98" s="28" t="s">
-        <v>180</v>
+        <v>146</v>
       </c>
       <c r="D98" s="29" t="s">
-        <v>180</v>
+        <v>146</v>
       </c>
       <c r="E98" s="32"/>
       <c r="F98" s="31" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="99" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -3475,17 +3614,17 @@
         <v>76</v>
       </c>
       <c r="B99" s="31" t="s">
-        <v>181</v>
+        <v>147</v>
       </c>
       <c r="C99" s="28" t="s">
-        <v>181</v>
+        <v>147</v>
       </c>
       <c r="D99" s="29" t="s">
-        <v>181</v>
+        <v>147</v>
       </c>
       <c r="E99" s="32"/>
       <c r="F99" s="31" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="100" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -3493,17 +3632,17 @@
         <v>76</v>
       </c>
       <c r="B100" s="31" t="s">
-        <v>182</v>
+        <v>148</v>
       </c>
       <c r="C100" s="28" t="s">
-        <v>182</v>
+        <v>148</v>
       </c>
       <c r="D100" s="29" t="s">
-        <v>182</v>
+        <v>148</v>
       </c>
       <c r="E100" s="32"/>
       <c r="F100" s="31" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="101" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -3511,17 +3650,17 @@
         <v>76</v>
       </c>
       <c r="B101" s="31" t="s">
-        <v>183</v>
+        <v>149</v>
       </c>
       <c r="C101" s="28" t="s">
-        <v>183</v>
+        <v>149</v>
       </c>
       <c r="D101" s="29" t="s">
-        <v>183</v>
+        <v>149</v>
       </c>
       <c r="E101" s="32"/>
       <c r="F101" s="31" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="102" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -3529,17 +3668,17 @@
         <v>76</v>
       </c>
       <c r="B102" s="31" t="s">
-        <v>184</v>
+        <v>150</v>
       </c>
       <c r="C102" s="28" t="s">
-        <v>184</v>
+        <v>150</v>
       </c>
       <c r="D102" s="29" t="s">
-        <v>184</v>
+        <v>150</v>
       </c>
       <c r="E102" s="32"/>
       <c r="F102" s="31" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="103" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -3547,17 +3686,17 @@
         <v>76</v>
       </c>
       <c r="B103" s="31" t="s">
-        <v>185</v>
+        <v>151</v>
       </c>
       <c r="C103" s="28" t="s">
-        <v>185</v>
+        <v>151</v>
       </c>
       <c r="D103" s="29" t="s">
-        <v>185</v>
+        <v>151</v>
       </c>
       <c r="E103" s="32"/>
       <c r="F103" s="31" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="104" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -3565,17 +3704,17 @@
         <v>76</v>
       </c>
       <c r="B104" s="31" t="s">
-        <v>186</v>
+        <v>152</v>
       </c>
       <c r="C104" s="28" t="s">
-        <v>186</v>
+        <v>152</v>
       </c>
       <c r="D104" s="29" t="s">
-        <v>186</v>
+        <v>152</v>
       </c>
       <c r="E104" s="32"/>
       <c r="F104" s="31" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="105" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -3583,17 +3722,17 @@
         <v>76</v>
       </c>
       <c r="B105" s="31" t="s">
-        <v>187</v>
+        <v>153</v>
       </c>
       <c r="C105" s="28" t="s">
-        <v>187</v>
+        <v>153</v>
       </c>
       <c r="D105" s="29" t="s">
-        <v>187</v>
+        <v>153</v>
       </c>
       <c r="E105" s="32"/>
       <c r="F105" s="31" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="106" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -3601,17 +3740,17 @@
         <v>76</v>
       </c>
       <c r="B106" s="31" t="s">
-        <v>188</v>
+        <v>154</v>
       </c>
       <c r="C106" s="28" t="s">
-        <v>188</v>
+        <v>154</v>
       </c>
       <c r="D106" s="29" t="s">
-        <v>188</v>
+        <v>154</v>
       </c>
       <c r="E106" s="32"/>
       <c r="F106" s="31" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="107" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -3619,17 +3758,17 @@
         <v>76</v>
       </c>
       <c r="B107" s="31" t="s">
-        <v>189</v>
+        <v>155</v>
       </c>
       <c r="C107" s="28" t="s">
-        <v>189</v>
+        <v>155</v>
       </c>
       <c r="D107" s="29" t="s">
-        <v>189</v>
+        <v>155</v>
       </c>
       <c r="E107" s="32"/>
       <c r="F107" s="31" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="108" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -3637,17 +3776,17 @@
         <v>76</v>
       </c>
       <c r="B108" s="31" t="s">
-        <v>190</v>
+        <v>156</v>
       </c>
       <c r="C108" s="28" t="s">
-        <v>190</v>
+        <v>156</v>
       </c>
       <c r="D108" s="29" t="s">
-        <v>190</v>
+        <v>156</v>
       </c>
       <c r="E108" s="32"/>
       <c r="F108" s="31" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
     </row>
     <row r="109" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -3655,17 +3794,17 @@
         <v>76</v>
       </c>
       <c r="B109" s="31" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="C109" s="28" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="D109" s="29" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="E109" s="32"/>
       <c r="F109" s="31" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
     </row>
     <row r="110" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -3673,17 +3812,17 @@
         <v>76</v>
       </c>
       <c r="B110" s="31" t="s">
-        <v>192</v>
+        <v>158</v>
       </c>
       <c r="C110" s="28" t="s">
-        <v>192</v>
+        <v>158</v>
       </c>
       <c r="D110" s="29" t="s">
-        <v>192</v>
+        <v>158</v>
       </c>
       <c r="E110" s="32"/>
       <c r="F110" s="31" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
     </row>
     <row r="111" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -3691,17 +3830,17 @@
         <v>76</v>
       </c>
       <c r="B111" s="31" t="s">
-        <v>193</v>
+        <v>159</v>
       </c>
       <c r="C111" s="28" t="s">
-        <v>193</v>
+        <v>159</v>
       </c>
       <c r="D111" s="29" t="s">
-        <v>193</v>
+        <v>159</v>
       </c>
       <c r="E111" s="32"/>
       <c r="F111" s="31" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
     </row>
     <row r="112" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -3709,833 +3848,791 @@
         <v>76</v>
       </c>
       <c r="B112" s="31" t="s">
-        <v>194</v>
+        <v>160</v>
       </c>
       <c r="C112" s="28" t="s">
-        <v>194</v>
+        <v>160</v>
       </c>
       <c r="D112" s="29" t="s">
-        <v>194</v>
+        <v>160</v>
       </c>
       <c r="E112" s="32"/>
       <c r="F112" s="31" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="32" t="s">
         <v>76</v>
       </c>
       <c r="B113" s="31" t="s">
-        <v>195</v>
+        <v>161</v>
       </c>
       <c r="C113" s="28" t="s">
-        <v>195</v>
+        <v>161</v>
       </c>
       <c r="D113" s="29" t="s">
-        <v>195</v>
+        <v>161</v>
       </c>
       <c r="E113" s="32"/>
       <c r="F113" s="31" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="B114" s="31">
+        <v>76</v>
+      </c>
+      <c r="B114" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="C114" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="D114" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="E114" s="32"/>
+      <c r="F114" s="31" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="B115" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="C115" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="D115" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="E115" s="32"/>
+      <c r="F115" s="31" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="B116" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="C116" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="D116" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="E116" s="32"/>
+      <c r="F116" s="31" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="B117" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="C117" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="D117" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="E117" s="32"/>
+      <c r="F117" s="31" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="B118" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="C118" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="D118" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="E118" s="32"/>
+      <c r="F118" s="31" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="B119" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="C119" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="D119" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E119" s="32"/>
+      <c r="F119" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="C114" s="28">
+    </row>
+    <row r="120" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="B120" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="C120" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="D120" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="E120" s="32"/>
+      <c r="F120" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="D114" s="29">
-        <v>100</v>
-      </c>
-      <c r="E114" s="32"/>
-      <c r="F114" s="31"/>
-      <c r="G114" s="33" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="B115" s="31">
+    </row>
+    <row r="121" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="B121" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="C121" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="D121" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="E121" s="32"/>
+      <c r="F121" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="C115" s="28">
+    </row>
+    <row r="122" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="B122" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="C122" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="D122" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="E122" s="32"/>
+      <c r="F122" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="D115" s="29">
-        <v>101</v>
-      </c>
-      <c r="E115" s="32"/>
-      <c r="F115" s="31"/>
-      <c r="G115" s="33" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="B116" s="31">
+    </row>
+    <row r="123" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="B123" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="C123" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="D123" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="E123" s="32"/>
+      <c r="F123" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="C116" s="28">
+    </row>
+    <row r="124" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="B124" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="C124" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="D124" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="E124" s="32"/>
+      <c r="F124" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="D116" s="29">
+    </row>
+    <row r="125" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="B125" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="C125" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="D125" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="E125" s="32"/>
+      <c r="F125" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="E116" s="32"/>
-      <c r="F116" s="31"/>
-      <c r="G116" s="33" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="B117" s="31">
+    </row>
+    <row r="126" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="B126" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="C126" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="D126" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="E126" s="32"/>
+      <c r="F126" s="31" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="B127" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="C127" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="D127" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="E127" s="32"/>
+      <c r="F127" s="31" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="B128" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="C128" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="D128" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="E128" s="32"/>
+      <c r="F128" s="31" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="B129" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="C129" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="D129" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="E129" s="32"/>
+      <c r="F129" s="31" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="B130" s="31" t="s">
+        <v>251</v>
+      </c>
+      <c r="C130" s="28" t="s">
+        <v>251</v>
+      </c>
+      <c r="D130" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="E130" s="32"/>
+      <c r="F130" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="C117" s="28">
+    </row>
+    <row r="131" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="B131" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="C131" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="D131" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="E131" s="32"/>
+      <c r="F131" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="D117" s="29">
+    </row>
+    <row r="132" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="B132" s="31" t="s">
+        <v>252</v>
+      </c>
+      <c r="C132" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D132" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="E132" s="32"/>
+      <c r="F132" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="E117" s="32"/>
-      <c r="F117" s="31"/>
-      <c r="G117" s="33" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="B118" s="31">
+    </row>
+    <row r="133" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="B133" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="C133" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="D133" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="E133" s="32"/>
+      <c r="F133" s="31" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="B134" s="31" t="s">
+        <v>253</v>
+      </c>
+      <c r="C134" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="D134" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="E134" s="32"/>
+      <c r="F134" s="31" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="B135" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="C135" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="D135" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="E135" s="32"/>
+      <c r="F135" s="31" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="B136" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="C136" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="D136" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="E136" s="32"/>
+      <c r="F136" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="C118" s="28">
+    </row>
+    <row r="137" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="B137" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="C137" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="D137" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="E137" s="32"/>
+      <c r="F137" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="D118" s="29">
+    </row>
+    <row r="138" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="B138" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="C138" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="D138" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="E138" s="32"/>
+      <c r="F138" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="E118" s="32"/>
-      <c r="F118" s="31"/>
-      <c r="G118" s="33" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="B119" s="31">
+    </row>
+    <row r="139" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="B139" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="C139" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="D139" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="E139" s="32"/>
+      <c r="F139" s="31" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="B140" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="C140" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="D140" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="E140" s="32"/>
+      <c r="F140" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="C119" s="28">
+    </row>
+    <row r="141" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="B141" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="C141" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="D141" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="E141" s="32"/>
+      <c r="F141" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="D119" s="29">
+    </row>
+    <row r="142" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="B142" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="C142" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="D142" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="E142" s="32"/>
+      <c r="F142" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="E119" s="32"/>
-      <c r="F119" s="31"/>
-      <c r="G119" s="33" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="B120" s="31">
-        <v>106</v>
-      </c>
-      <c r="C120" s="28">
-        <v>106</v>
-      </c>
-      <c r="D120" s="29">
-        <v>106</v>
-      </c>
-      <c r="E120" s="32"/>
-      <c r="F120" s="31"/>
-      <c r="G120" s="33" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="B121" s="31">
-        <v>107</v>
-      </c>
-      <c r="C121" s="28">
-        <v>107</v>
-      </c>
-      <c r="D121" s="29">
-        <v>107</v>
-      </c>
-      <c r="E121" s="32"/>
-      <c r="F121" s="31"/>
-      <c r="G121" s="33" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="B122" s="31">
-        <v>108</v>
-      </c>
-      <c r="C122" s="28">
-        <v>108</v>
-      </c>
-      <c r="D122" s="29">
-        <v>108</v>
-      </c>
-      <c r="E122" s="32"/>
-      <c r="F122" s="31"/>
-      <c r="G122" s="33" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="B123" s="31">
-        <v>109</v>
-      </c>
-      <c r="C123" s="28">
-        <v>109</v>
-      </c>
-      <c r="D123" s="29">
-        <v>109</v>
-      </c>
-      <c r="E123" s="32"/>
-      <c r="F123" s="31"/>
-      <c r="G123" s="33" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="B124" s="31">
-        <v>200</v>
-      </c>
-      <c r="C124" s="28">
-        <v>200</v>
-      </c>
-      <c r="D124" s="29">
-        <v>200</v>
-      </c>
-      <c r="E124" s="32"/>
-      <c r="F124" s="31"/>
-      <c r="G124" s="33" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="B125" s="31">
-        <v>201</v>
-      </c>
-      <c r="C125" s="28">
-        <v>201</v>
-      </c>
-      <c r="D125" s="29">
-        <v>201</v>
-      </c>
-      <c r="E125" s="32"/>
-      <c r="F125" s="31"/>
-      <c r="G125" s="33" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="B126" s="31">
-        <v>202</v>
-      </c>
-      <c r="C126" s="28">
-        <v>202</v>
-      </c>
-      <c r="D126" s="29">
-        <v>202</v>
-      </c>
-      <c r="E126" s="32"/>
-      <c r="F126" s="31"/>
-      <c r="G126" s="33" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="B127" s="31">
-        <v>203</v>
-      </c>
-      <c r="C127" s="28">
-        <v>203</v>
-      </c>
-      <c r="D127" s="29">
-        <v>203</v>
-      </c>
-      <c r="E127" s="32"/>
-      <c r="F127" s="31"/>
-      <c r="G127" s="33" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="B128" s="31">
-        <v>204</v>
-      </c>
-      <c r="C128" s="28">
-        <v>204</v>
-      </c>
-      <c r="D128" s="29">
-        <v>204</v>
-      </c>
-      <c r="E128" s="32"/>
-      <c r="F128" s="31"/>
-      <c r="G128" s="33" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="B129" s="31">
-        <v>205</v>
-      </c>
-      <c r="C129" s="28">
-        <v>205</v>
-      </c>
-      <c r="D129" s="29">
-        <v>205</v>
-      </c>
-      <c r="E129" s="32"/>
-      <c r="F129" s="31"/>
-      <c r="G129" s="33" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="B130" s="31">
-        <v>206</v>
-      </c>
-      <c r="C130" s="28">
-        <v>206</v>
-      </c>
-      <c r="D130" s="29">
-        <v>206</v>
-      </c>
-      <c r="E130" s="32"/>
-      <c r="F130" s="31"/>
-      <c r="G130" s="33" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="B131" s="31">
-        <v>207</v>
-      </c>
-      <c r="C131" s="28">
-        <v>207</v>
-      </c>
-      <c r="D131" s="29">
-        <v>207</v>
-      </c>
-      <c r="E131" s="32"/>
-      <c r="F131" s="31"/>
-      <c r="G131" s="33" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="B132" s="31">
-        <v>208</v>
-      </c>
-      <c r="C132" s="28">
-        <v>208</v>
-      </c>
-      <c r="D132" s="29">
-        <v>208</v>
-      </c>
-      <c r="E132" s="32"/>
-      <c r="F132" s="31"/>
-      <c r="G132" s="33" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="B133" s="31">
-        <v>209</v>
-      </c>
-      <c r="C133" s="28">
-        <v>209</v>
-      </c>
-      <c r="D133" s="29">
-        <v>209</v>
-      </c>
-      <c r="E133" s="32"/>
-      <c r="F133" s="31"/>
-      <c r="G133" s="33" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="B134" s="31">
-        <v>210</v>
-      </c>
-      <c r="C134" s="28">
-        <v>210</v>
-      </c>
-      <c r="D134" s="29">
-        <v>210</v>
-      </c>
-      <c r="E134" s="32"/>
-      <c r="F134" s="31"/>
-      <c r="G134" s="33" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="B135" s="31">
-        <v>211</v>
-      </c>
-      <c r="C135" s="28">
-        <v>211</v>
-      </c>
-      <c r="D135" s="29">
-        <v>211</v>
-      </c>
-      <c r="E135" s="32"/>
-      <c r="F135" s="31"/>
-      <c r="G135" s="33" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="B136" s="31">
-        <v>212</v>
-      </c>
-      <c r="C136" s="28">
-        <v>212</v>
-      </c>
-      <c r="D136" s="29">
-        <v>212</v>
-      </c>
-      <c r="E136" s="32"/>
-      <c r="F136" s="31"/>
-      <c r="G136" s="33" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="B137" s="31">
-        <v>213</v>
-      </c>
-      <c r="C137" s="28">
-        <v>213</v>
-      </c>
-      <c r="D137" s="29">
-        <v>213</v>
-      </c>
-      <c r="E137" s="32"/>
-      <c r="F137" s="31"/>
-      <c r="G137" s="33" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="B138" s="31">
-        <v>214</v>
-      </c>
-      <c r="C138" s="28">
-        <v>214</v>
-      </c>
-      <c r="D138" s="29">
-        <v>214</v>
-      </c>
-      <c r="E138" s="32"/>
-      <c r="F138" s="31"/>
-      <c r="G138" s="33" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="B139" s="31">
-        <v>215</v>
-      </c>
-      <c r="C139" s="28">
-        <v>215</v>
-      </c>
-      <c r="D139" s="29">
-        <v>215</v>
-      </c>
-      <c r="E139" s="32"/>
-      <c r="F139" s="31"/>
-      <c r="G139" s="33" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="B140" s="31">
-        <v>216</v>
-      </c>
-      <c r="C140" s="28">
-        <v>216</v>
-      </c>
-      <c r="D140" s="29">
-        <v>216</v>
-      </c>
-      <c r="E140" s="32"/>
-      <c r="F140" s="31"/>
-      <c r="G140" s="33" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="B141" s="31">
-        <v>217</v>
-      </c>
-      <c r="C141" s="28">
-        <v>217</v>
-      </c>
-      <c r="D141" s="29">
-        <v>217</v>
-      </c>
-      <c r="E141" s="32"/>
-      <c r="F141" s="31"/>
-      <c r="G141" s="33" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="B142" s="31">
-        <v>218</v>
-      </c>
-      <c r="C142" s="28">
-        <v>218</v>
-      </c>
-      <c r="D142" s="29">
-        <v>218</v>
-      </c>
-      <c r="E142" s="32"/>
-      <c r="F142" s="31"/>
-      <c r="G142" s="33" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="B143" s="31">
-        <v>219</v>
-      </c>
-      <c r="C143" s="28">
-        <v>219</v>
-      </c>
-      <c r="D143" s="29">
-        <v>219</v>
+        <v>76</v>
+      </c>
+      <c r="B143" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="C143" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="D143" s="29" t="s">
+        <v>184</v>
       </c>
       <c r="E143" s="32"/>
-      <c r="F143" s="31"/>
-      <c r="G143" s="33" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F143" s="31" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="B144" s="31">
-        <v>220</v>
-      </c>
-      <c r="C144" s="28">
-        <v>220</v>
-      </c>
-      <c r="D144" s="29">
-        <v>220</v>
+        <v>76</v>
+      </c>
+      <c r="B144" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="C144" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="D144" s="29" t="s">
+        <v>185</v>
       </c>
       <c r="E144" s="32"/>
-      <c r="F144" s="31"/>
-      <c r="G144" s="33" t="s">
-        <v>141</v>
+      <c r="F144" s="31" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="145" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="B145" s="31">
-        <v>221</v>
-      </c>
-      <c r="C145" s="28">
-        <v>221</v>
-      </c>
-      <c r="D145" s="29">
-        <v>221</v>
+        <v>76</v>
+      </c>
+      <c r="B145" s="31" t="s">
+        <v>256</v>
+      </c>
+      <c r="C145" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="D145" s="29" t="s">
+        <v>256</v>
       </c>
       <c r="E145" s="32"/>
-      <c r="F145" s="31"/>
-      <c r="G145" s="33" t="s">
-        <v>142</v>
+      <c r="F145" s="31" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="146" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="B146" s="31">
-        <v>222</v>
-      </c>
-      <c r="C146" s="28">
-        <v>222</v>
-      </c>
-      <c r="D146" s="29">
-        <v>222</v>
+        <v>76</v>
+      </c>
+      <c r="B146" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="C146" s="28" t="s">
+        <v>257</v>
+      </c>
+      <c r="D146" s="29" t="s">
+        <v>257</v>
       </c>
       <c r="E146" s="32"/>
-      <c r="F146" s="31"/>
-      <c r="G146" s="33" t="s">
-        <v>143</v>
+      <c r="F146" s="31" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="147" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="B147" s="31">
-        <v>223</v>
-      </c>
-      <c r="C147" s="28">
-        <v>223</v>
-      </c>
-      <c r="D147" s="29">
-        <v>223</v>
+        <v>76</v>
+      </c>
+      <c r="B147" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="C147" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="D147" s="29" t="s">
+        <v>186</v>
       </c>
       <c r="E147" s="32"/>
-      <c r="F147" s="31"/>
-      <c r="G147" s="33" t="s">
-        <v>144</v>
+      <c r="F147" s="31" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="148" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="B148" s="31">
-        <v>224</v>
-      </c>
-      <c r="C148" s="28">
-        <v>224</v>
-      </c>
-      <c r="D148" s="29">
-        <v>224</v>
+        <v>76</v>
+      </c>
+      <c r="B148" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="C148" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="D148" s="29" t="s">
+        <v>187</v>
       </c>
       <c r="E148" s="32"/>
-      <c r="F148" s="31"/>
-      <c r="G148" s="33" t="s">
-        <v>145</v>
+      <c r="F148" s="31" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="149" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="B149" s="31">
-        <v>225</v>
-      </c>
-      <c r="C149" s="28">
-        <v>225</v>
-      </c>
-      <c r="D149" s="29">
-        <v>225</v>
+        <v>76</v>
+      </c>
+      <c r="B149" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="C149" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="D149" s="29" t="s">
+        <v>188</v>
       </c>
       <c r="E149" s="32"/>
-      <c r="F149" s="31"/>
-      <c r="G149" s="33" t="s">
-        <v>146</v>
+      <c r="F149" s="31" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="150" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="B150" s="31">
-        <v>226</v>
-      </c>
-      <c r="C150" s="28">
-        <v>226</v>
-      </c>
-      <c r="D150" s="29">
-        <v>226</v>
+        <v>76</v>
+      </c>
+      <c r="B150" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="C150" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="D150" s="29" t="s">
+        <v>189</v>
       </c>
       <c r="E150" s="32"/>
-      <c r="F150" s="31"/>
-      <c r="G150" s="33" t="s">
-        <v>147</v>
+      <c r="F150" s="31" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="151" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="B151" s="31">
-        <v>227</v>
-      </c>
-      <c r="C151" s="28">
-        <v>227</v>
-      </c>
-      <c r="D151" s="29">
-        <v>227</v>
+        <v>76</v>
+      </c>
+      <c r="B151" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="C151" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="D151" s="29" t="s">
+        <v>190</v>
       </c>
       <c r="E151" s="32"/>
-      <c r="F151" s="31"/>
-      <c r="G151" s="33" t="s">
-        <v>148</v>
+      <c r="F151" s="31" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="152" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="B152" s="31">
-        <v>228</v>
-      </c>
-      <c r="C152" s="28">
-        <v>228</v>
-      </c>
-      <c r="D152" s="29">
-        <v>228</v>
+        <v>76</v>
+      </c>
+      <c r="B152" s="31" t="s">
+        <v>258</v>
+      </c>
+      <c r="C152" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="D152" s="29" t="s">
+        <v>258</v>
       </c>
       <c r="E152" s="32"/>
-      <c r="F152" s="31"/>
-      <c r="G152" s="33" t="s">
-        <v>149</v>
+      <c r="F152" s="31" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="153" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="B153" s="31">
-        <v>229</v>
-      </c>
-      <c r="C153" s="28">
-        <v>229</v>
-      </c>
-      <c r="D153" s="29">
-        <v>229</v>
+        <v>76</v>
+      </c>
+      <c r="B153" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="C153" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="D153" s="29" t="s">
+        <v>191</v>
       </c>
       <c r="E153" s="32"/>
-      <c r="F153" s="31"/>
-      <c r="G153" s="33" t="s">
-        <v>150</v>
+      <c r="F153" s="31" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="154" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="B154" s="31">
-        <v>230</v>
-      </c>
-      <c r="C154" s="28">
-        <v>230</v>
-      </c>
-      <c r="D154" s="29">
-        <v>230</v>
+        <v>76</v>
+      </c>
+      <c r="B154" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="C154" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="D154" s="29" t="s">
+        <v>192</v>
       </c>
       <c r="E154" s="32"/>
-      <c r="F154" s="31"/>
-      <c r="G154" s="33" t="s">
-        <v>151</v>
+      <c r="F154" s="31" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="155" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="B155" s="31">
-        <v>231</v>
-      </c>
-      <c r="C155" s="28">
-        <v>231</v>
-      </c>
-      <c r="D155" s="29">
-        <v>231</v>
+        <v>76</v>
+      </c>
+      <c r="B155" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="C155" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="D155" s="29" t="s">
+        <v>193</v>
       </c>
       <c r="E155" s="32"/>
-      <c r="F155" s="31"/>
-      <c r="G155" s="33" t="s">
-        <v>152</v>
+      <c r="F155" s="31" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="156" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -4543,18 +4640,18 @@
         <v>75</v>
       </c>
       <c r="B156" s="31">
-        <v>232</v>
+        <v>100</v>
       </c>
       <c r="C156" s="28">
-        <v>232</v>
+        <v>100</v>
       </c>
       <c r="D156" s="29">
-        <v>232</v>
+        <v>100</v>
       </c>
       <c r="E156" s="32"/>
       <c r="F156" s="31"/>
       <c r="G156" s="33" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
     </row>
     <row r="157" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -4562,18 +4659,18 @@
         <v>75</v>
       </c>
       <c r="B157" s="31">
-        <v>233</v>
+        <v>101</v>
       </c>
       <c r="C157" s="28">
-        <v>233</v>
+        <v>101</v>
       </c>
       <c r="D157" s="29">
-        <v>233</v>
+        <v>101</v>
       </c>
       <c r="E157" s="32"/>
       <c r="F157" s="31"/>
       <c r="G157" s="33" t="s">
-        <v>154</v>
+        <v>219</v>
       </c>
     </row>
     <row r="158" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -4581,18 +4678,18 @@
         <v>75</v>
       </c>
       <c r="B158" s="31">
-        <v>234</v>
+        <v>102</v>
       </c>
       <c r="C158" s="28">
-        <v>234</v>
+        <v>102</v>
       </c>
       <c r="D158" s="29">
-        <v>234</v>
+        <v>102</v>
       </c>
       <c r="E158" s="32"/>
       <c r="F158" s="31"/>
       <c r="G158" s="33" t="s">
-        <v>155</v>
+        <v>220</v>
       </c>
     </row>
     <row r="159" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -4600,18 +4697,18 @@
         <v>75</v>
       </c>
       <c r="B159" s="31">
-        <v>235</v>
+        <v>103</v>
       </c>
       <c r="C159" s="28">
-        <v>235</v>
+        <v>103</v>
       </c>
       <c r="D159" s="29">
-        <v>235</v>
+        <v>103</v>
       </c>
       <c r="E159" s="32"/>
       <c r="F159" s="31"/>
       <c r="G159" s="33" t="s">
-        <v>156</v>
+        <v>110</v>
       </c>
     </row>
     <row r="160" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -4619,18 +4716,18 @@
         <v>75</v>
       </c>
       <c r="B160" s="31">
-        <v>236</v>
+        <v>104</v>
       </c>
       <c r="C160" s="28">
-        <v>236</v>
+        <v>104</v>
       </c>
       <c r="D160" s="29">
-        <v>236</v>
+        <v>104</v>
       </c>
       <c r="E160" s="32"/>
       <c r="F160" s="31"/>
       <c r="G160" s="33" t="s">
-        <v>157</v>
+        <v>221</v>
       </c>
     </row>
     <row r="161" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -4638,18 +4735,18 @@
         <v>75</v>
       </c>
       <c r="B161" s="31">
-        <v>237</v>
+        <v>105</v>
       </c>
       <c r="C161" s="28">
-        <v>237</v>
+        <v>105</v>
       </c>
       <c r="D161" s="29">
-        <v>237</v>
+        <v>105</v>
       </c>
       <c r="E161" s="32"/>
       <c r="F161" s="31"/>
       <c r="G161" s="33" t="s">
-        <v>158</v>
+        <v>222</v>
       </c>
     </row>
     <row r="162" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -4657,18 +4754,18 @@
         <v>75</v>
       </c>
       <c r="B162" s="31">
-        <v>238</v>
+        <v>106</v>
       </c>
       <c r="C162" s="28">
-        <v>238</v>
+        <v>106</v>
       </c>
       <c r="D162" s="29">
-        <v>238</v>
+        <v>106</v>
       </c>
       <c r="E162" s="32"/>
       <c r="F162" s="31"/>
       <c r="G162" s="33" t="s">
-        <v>159</v>
+        <v>111</v>
       </c>
     </row>
     <row r="163" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -4676,18 +4773,18 @@
         <v>75</v>
       </c>
       <c r="B163" s="31">
-        <v>239</v>
+        <v>107</v>
       </c>
       <c r="C163" s="28">
-        <v>239</v>
+        <v>107</v>
       </c>
       <c r="D163" s="29">
-        <v>239</v>
+        <v>107</v>
       </c>
       <c r="E163" s="32"/>
       <c r="F163" s="31"/>
       <c r="G163" s="33" t="s">
-        <v>160</v>
+        <v>223</v>
       </c>
     </row>
     <row r="164" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -4695,18 +4792,18 @@
         <v>75</v>
       </c>
       <c r="B164" s="31">
-        <v>240</v>
+        <v>108</v>
       </c>
       <c r="C164" s="28">
-        <v>240</v>
+        <v>108</v>
       </c>
       <c r="D164" s="29">
-        <v>240</v>
+        <v>108</v>
       </c>
       <c r="E164" s="32"/>
       <c r="F164" s="31"/>
       <c r="G164" s="33" t="s">
-        <v>161</v>
+        <v>224</v>
       </c>
     </row>
     <row r="165" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -4714,18 +4811,18 @@
         <v>75</v>
       </c>
       <c r="B165" s="31">
-        <v>241</v>
+        <v>109</v>
       </c>
       <c r="C165" s="28">
-        <v>241</v>
+        <v>109</v>
       </c>
       <c r="D165" s="29">
-        <v>241</v>
+        <v>109</v>
       </c>
       <c r="E165" s="32"/>
       <c r="F165" s="31"/>
       <c r="G165" s="33" t="s">
-        <v>162</v>
+        <v>225</v>
       </c>
     </row>
     <row r="166" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -4733,18 +4830,18 @@
         <v>75</v>
       </c>
       <c r="B166" s="31">
-        <v>242</v>
+        <v>110</v>
       </c>
       <c r="C166" s="28">
-        <v>242</v>
+        <v>110</v>
       </c>
       <c r="D166" s="29">
-        <v>242</v>
+        <v>110</v>
       </c>
       <c r="E166" s="32"/>
       <c r="F166" s="31"/>
       <c r="G166" s="33" t="s">
-        <v>163</v>
+        <v>226</v>
       </c>
     </row>
     <row r="167" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -4752,18 +4849,18 @@
         <v>75</v>
       </c>
       <c r="B167" s="31">
-        <v>243</v>
+        <v>111</v>
       </c>
       <c r="C167" s="28">
-        <v>243</v>
+        <v>111</v>
       </c>
       <c r="D167" s="29">
-        <v>243</v>
+        <v>111</v>
       </c>
       <c r="E167" s="32"/>
       <c r="F167" s="31"/>
       <c r="G167" s="33" t="s">
-        <v>164</v>
+        <v>227</v>
       </c>
     </row>
     <row r="168" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -4771,18 +4868,18 @@
         <v>75</v>
       </c>
       <c r="B168" s="31">
-        <v>244</v>
+        <v>112</v>
       </c>
       <c r="C168" s="28">
-        <v>244</v>
+        <v>112</v>
       </c>
       <c r="D168" s="29">
-        <v>244</v>
+        <v>112</v>
       </c>
       <c r="E168" s="32"/>
       <c r="F168" s="31"/>
       <c r="G168" s="33" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
     </row>
     <row r="169" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -4790,18 +4887,18 @@
         <v>75</v>
       </c>
       <c r="B169" s="31">
-        <v>300</v>
+        <v>113</v>
       </c>
       <c r="C169" s="28">
-        <v>300</v>
+        <v>113</v>
       </c>
       <c r="D169" s="29">
-        <v>300</v>
+        <v>113</v>
       </c>
       <c r="E169" s="32"/>
       <c r="F169" s="31"/>
       <c r="G169" s="33" t="s">
-        <v>166</v>
+        <v>228</v>
       </c>
     </row>
     <row r="170" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -4809,18 +4906,18 @@
         <v>75</v>
       </c>
       <c r="B170" s="31">
-        <v>301</v>
+        <v>114</v>
       </c>
       <c r="C170" s="28">
-        <v>301</v>
+        <v>114</v>
       </c>
       <c r="D170" s="29">
-        <v>301</v>
+        <v>114</v>
       </c>
       <c r="E170" s="32"/>
       <c r="F170" s="31"/>
       <c r="G170" s="33" t="s">
-        <v>167</v>
+        <v>229</v>
       </c>
     </row>
     <row r="171" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -4828,18 +4925,18 @@
         <v>75</v>
       </c>
       <c r="B171" s="31">
-        <v>302</v>
+        <v>115</v>
       </c>
       <c r="C171" s="28">
-        <v>302</v>
+        <v>115</v>
       </c>
       <c r="D171" s="29">
-        <v>302</v>
+        <v>115</v>
       </c>
       <c r="E171" s="32"/>
       <c r="F171" s="31"/>
       <c r="G171" s="33" t="s">
-        <v>168</v>
+        <v>230</v>
       </c>
     </row>
     <row r="172" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -4847,18 +4944,18 @@
         <v>75</v>
       </c>
       <c r="B172" s="31">
-        <v>303</v>
+        <v>116</v>
       </c>
       <c r="C172" s="28">
-        <v>303</v>
+        <v>116</v>
       </c>
       <c r="D172" s="29">
-        <v>303</v>
+        <v>116</v>
       </c>
       <c r="E172" s="32"/>
       <c r="F172" s="31"/>
       <c r="G172" s="33" t="s">
-        <v>169</v>
+        <v>231</v>
       </c>
     </row>
     <row r="173" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -4866,18 +4963,18 @@
         <v>75</v>
       </c>
       <c r="B173" s="31">
-        <v>304</v>
+        <v>117</v>
       </c>
       <c r="C173" s="28">
-        <v>304</v>
+        <v>117</v>
       </c>
       <c r="D173" s="29">
-        <v>304</v>
+        <v>117</v>
       </c>
       <c r="E173" s="32"/>
       <c r="F173" s="31"/>
       <c r="G173" s="33" t="s">
-        <v>170</v>
+        <v>113</v>
       </c>
     </row>
     <row r="174" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -4885,18 +4982,18 @@
         <v>75</v>
       </c>
       <c r="B174" s="31">
-        <v>305</v>
+        <v>118</v>
       </c>
       <c r="C174" s="28">
-        <v>305</v>
+        <v>118</v>
       </c>
       <c r="D174" s="29">
-        <v>305</v>
+        <v>118</v>
       </c>
       <c r="E174" s="32"/>
       <c r="F174" s="31"/>
       <c r="G174" s="33" t="s">
-        <v>171</v>
+        <v>232</v>
       </c>
     </row>
     <row r="175" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -4904,18 +5001,18 @@
         <v>75</v>
       </c>
       <c r="B175" s="31">
-        <v>306</v>
+        <v>119</v>
       </c>
       <c r="C175" s="28">
-        <v>306</v>
+        <v>119</v>
       </c>
       <c r="D175" s="29">
-        <v>306</v>
+        <v>119</v>
       </c>
       <c r="E175" s="32"/>
       <c r="F175" s="31"/>
       <c r="G175" s="33" t="s">
-        <v>172</v>
+        <v>114</v>
       </c>
     </row>
     <row r="176" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -4923,18 +5020,18 @@
         <v>75</v>
       </c>
       <c r="B176" s="31">
-        <v>307</v>
+        <v>120</v>
       </c>
       <c r="C176" s="28">
-        <v>307</v>
+        <v>120</v>
       </c>
       <c r="D176" s="29">
-        <v>307</v>
+        <v>120</v>
       </c>
       <c r="E176" s="32"/>
       <c r="F176" s="31"/>
       <c r="G176" s="33" t="s">
-        <v>173</v>
+        <v>233</v>
       </c>
     </row>
     <row r="177" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -4942,18 +5039,18 @@
         <v>75</v>
       </c>
       <c r="B177" s="31">
-        <v>308</v>
+        <v>121</v>
       </c>
       <c r="C177" s="28">
-        <v>308</v>
+        <v>121</v>
       </c>
       <c r="D177" s="29">
-        <v>308</v>
+        <v>121</v>
       </c>
       <c r="E177" s="32"/>
       <c r="F177" s="31"/>
       <c r="G177" s="33" t="s">
-        <v>174</v>
+        <v>234</v>
       </c>
     </row>
     <row r="178" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -4961,18 +5058,18 @@
         <v>75</v>
       </c>
       <c r="B178" s="31">
-        <v>309</v>
+        <v>122</v>
       </c>
       <c r="C178" s="28">
-        <v>309</v>
+        <v>122</v>
       </c>
       <c r="D178" s="29">
-        <v>309</v>
+        <v>122</v>
       </c>
       <c r="E178" s="32"/>
       <c r="F178" s="31"/>
       <c r="G178" s="33" t="s">
-        <v>175</v>
+        <v>115</v>
       </c>
     </row>
     <row r="179" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -4980,18 +5077,18 @@
         <v>75</v>
       </c>
       <c r="B179" s="31">
-        <v>310</v>
+        <v>123</v>
       </c>
       <c r="C179" s="28">
-        <v>310</v>
+        <v>123</v>
       </c>
       <c r="D179" s="29">
-        <v>310</v>
+        <v>123</v>
       </c>
       <c r="E179" s="32"/>
       <c r="F179" s="31"/>
       <c r="G179" s="33" t="s">
-        <v>176</v>
+        <v>235</v>
       </c>
     </row>
     <row r="180" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -4999,18 +5096,18 @@
         <v>75</v>
       </c>
       <c r="B180" s="31">
-        <v>311</v>
+        <v>124</v>
       </c>
       <c r="C180" s="28">
-        <v>311</v>
+        <v>124</v>
       </c>
       <c r="D180" s="29">
-        <v>311</v>
+        <v>124</v>
       </c>
       <c r="E180" s="32"/>
       <c r="F180" s="31"/>
       <c r="G180" s="33" t="s">
-        <v>177</v>
+        <v>236</v>
       </c>
     </row>
     <row r="181" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -5018,18 +5115,18 @@
         <v>75</v>
       </c>
       <c r="B181" s="31">
-        <v>312</v>
+        <v>125</v>
       </c>
       <c r="C181" s="28">
-        <v>312</v>
+        <v>125</v>
       </c>
       <c r="D181" s="29">
-        <v>312</v>
+        <v>125</v>
       </c>
       <c r="E181" s="32"/>
       <c r="F181" s="31"/>
       <c r="G181" s="33" t="s">
-        <v>178</v>
+        <v>116</v>
       </c>
     </row>
     <row r="182" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -5037,18 +5134,18 @@
         <v>75</v>
       </c>
       <c r="B182" s="31">
-        <v>313</v>
+        <v>126</v>
       </c>
       <c r="C182" s="28">
-        <v>313</v>
+        <v>126</v>
       </c>
       <c r="D182" s="29">
-        <v>313</v>
+        <v>126</v>
       </c>
       <c r="E182" s="32"/>
       <c r="F182" s="31"/>
       <c r="G182" s="33" t="s">
-        <v>179</v>
+        <v>237</v>
       </c>
     </row>
     <row r="183" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -5056,18 +5153,18 @@
         <v>75</v>
       </c>
       <c r="B183" s="31">
-        <v>314</v>
+        <v>127</v>
       </c>
       <c r="C183" s="28">
-        <v>314</v>
+        <v>127</v>
       </c>
       <c r="D183" s="29">
-        <v>314</v>
+        <v>127</v>
       </c>
       <c r="E183" s="32"/>
       <c r="F183" s="31"/>
       <c r="G183" s="33" t="s">
-        <v>180</v>
+        <v>238</v>
       </c>
     </row>
     <row r="184" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -5075,18 +5172,18 @@
         <v>75</v>
       </c>
       <c r="B184" s="31">
-        <v>315</v>
+        <v>128</v>
       </c>
       <c r="C184" s="28">
-        <v>315</v>
+        <v>128</v>
       </c>
       <c r="D184" s="29">
-        <v>315</v>
+        <v>128</v>
       </c>
       <c r="E184" s="32"/>
       <c r="F184" s="31"/>
       <c r="G184" s="33" t="s">
-        <v>181</v>
+        <v>239</v>
       </c>
     </row>
     <row r="185" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -5094,18 +5191,18 @@
         <v>75</v>
       </c>
       <c r="B185" s="31">
-        <v>316</v>
+        <v>129</v>
       </c>
       <c r="C185" s="28">
-        <v>316</v>
+        <v>129</v>
       </c>
       <c r="D185" s="29">
-        <v>316</v>
+        <v>129</v>
       </c>
       <c r="E185" s="32"/>
       <c r="F185" s="31"/>
       <c r="G185" s="33" t="s">
-        <v>182</v>
+        <v>117</v>
       </c>
     </row>
     <row r="186" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -5113,18 +5210,18 @@
         <v>75</v>
       </c>
       <c r="B186" s="31">
-        <v>317</v>
+        <v>130</v>
       </c>
       <c r="C186" s="28">
-        <v>317</v>
+        <v>130</v>
       </c>
       <c r="D186" s="29">
-        <v>317</v>
+        <v>130</v>
       </c>
       <c r="E186" s="32"/>
       <c r="F186" s="31"/>
       <c r="G186" s="33" t="s">
-        <v>183</v>
+        <v>240</v>
       </c>
     </row>
     <row r="187" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -5132,18 +5229,18 @@
         <v>75</v>
       </c>
       <c r="B187" s="31">
-        <v>318</v>
+        <v>131</v>
       </c>
       <c r="C187" s="28">
-        <v>318</v>
+        <v>131</v>
       </c>
       <c r="D187" s="29">
-        <v>318</v>
+        <v>131</v>
       </c>
       <c r="E187" s="32"/>
       <c r="F187" s="31"/>
       <c r="G187" s="33" t="s">
-        <v>184</v>
+        <v>118</v>
       </c>
     </row>
     <row r="188" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -5151,18 +5248,18 @@
         <v>75</v>
       </c>
       <c r="B188" s="31">
-        <v>319</v>
+        <v>132</v>
       </c>
       <c r="C188" s="28">
-        <v>319</v>
+        <v>132</v>
       </c>
       <c r="D188" s="29">
-        <v>319</v>
+        <v>132</v>
       </c>
       <c r="E188" s="32"/>
       <c r="F188" s="31"/>
       <c r="G188" s="33" t="s">
-        <v>185</v>
+        <v>241</v>
       </c>
     </row>
     <row r="189" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -5170,18 +5267,18 @@
         <v>75</v>
       </c>
       <c r="B189" s="31">
-        <v>320</v>
+        <v>133</v>
       </c>
       <c r="C189" s="28">
-        <v>320</v>
+        <v>133</v>
       </c>
       <c r="D189" s="29">
-        <v>320</v>
+        <v>133</v>
       </c>
       <c r="E189" s="32"/>
       <c r="F189" s="31"/>
       <c r="G189" s="33" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
     </row>
     <row r="190" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -5189,18 +5286,18 @@
         <v>75</v>
       </c>
       <c r="B190" s="31">
-        <v>321</v>
+        <v>134</v>
       </c>
       <c r="C190" s="28">
-        <v>321</v>
+        <v>134</v>
       </c>
       <c r="D190" s="29">
-        <v>321</v>
+        <v>134</v>
       </c>
       <c r="E190" s="32"/>
       <c r="F190" s="31"/>
       <c r="G190" s="33" t="s">
-        <v>187</v>
+        <v>243</v>
       </c>
     </row>
     <row r="191" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -5208,18 +5305,18 @@
         <v>75</v>
       </c>
       <c r="B191" s="31">
-        <v>322</v>
+        <v>135</v>
       </c>
       <c r="C191" s="28">
-        <v>322</v>
+        <v>135</v>
       </c>
       <c r="D191" s="29">
-        <v>322</v>
+        <v>135</v>
       </c>
       <c r="E191" s="32"/>
       <c r="F191" s="31"/>
       <c r="G191" s="33" t="s">
-        <v>188</v>
+        <v>244</v>
       </c>
     </row>
     <row r="192" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -5227,18 +5324,18 @@
         <v>75</v>
       </c>
       <c r="B192" s="31">
-        <v>323</v>
+        <v>136</v>
       </c>
       <c r="C192" s="28">
-        <v>323</v>
+        <v>136</v>
       </c>
       <c r="D192" s="29">
-        <v>323</v>
+        <v>136</v>
       </c>
       <c r="E192" s="32"/>
       <c r="F192" s="31"/>
       <c r="G192" s="33" t="s">
-        <v>189</v>
+        <v>245</v>
       </c>
     </row>
     <row r="193" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -5246,18 +5343,18 @@
         <v>75</v>
       </c>
       <c r="B193" s="31">
-        <v>324</v>
+        <v>137</v>
       </c>
       <c r="C193" s="28">
-        <v>324</v>
+        <v>137</v>
       </c>
       <c r="D193" s="29">
-        <v>324</v>
+        <v>137</v>
       </c>
       <c r="E193" s="32"/>
       <c r="F193" s="31"/>
       <c r="G193" s="33" t="s">
-        <v>190</v>
+        <v>246</v>
       </c>
     </row>
     <row r="194" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -5265,18 +5362,18 @@
         <v>75</v>
       </c>
       <c r="B194" s="31">
-        <v>325</v>
+        <v>138</v>
       </c>
       <c r="C194" s="28">
-        <v>325</v>
+        <v>138</v>
       </c>
       <c r="D194" s="29">
-        <v>325</v>
+        <v>138</v>
       </c>
       <c r="E194" s="32"/>
       <c r="F194" s="31"/>
       <c r="G194" s="33" t="s">
-        <v>191</v>
+        <v>247</v>
       </c>
     </row>
     <row r="195" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -5284,18 +5381,18 @@
         <v>75</v>
       </c>
       <c r="B195" s="31">
-        <v>326</v>
+        <v>139</v>
       </c>
       <c r="C195" s="28">
-        <v>326</v>
+        <v>139</v>
       </c>
       <c r="D195" s="29">
-        <v>326</v>
+        <v>139</v>
       </c>
       <c r="E195" s="32"/>
       <c r="F195" s="31"/>
       <c r="G195" s="33" t="s">
-        <v>192</v>
+        <v>248</v>
       </c>
     </row>
     <row r="196" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -5303,18 +5400,18 @@
         <v>75</v>
       </c>
       <c r="B196" s="31">
-        <v>327</v>
+        <v>200</v>
       </c>
       <c r="C196" s="28">
-        <v>327</v>
+        <v>200</v>
       </c>
       <c r="D196" s="29">
-        <v>327</v>
+        <v>200</v>
       </c>
       <c r="E196" s="32"/>
       <c r="F196" s="31"/>
       <c r="G196" s="33" t="s">
-        <v>193</v>
+        <v>119</v>
       </c>
     </row>
     <row r="197" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -5322,18 +5419,18 @@
         <v>75</v>
       </c>
       <c r="B197" s="31">
-        <v>328</v>
+        <v>201</v>
       </c>
       <c r="C197" s="28">
-        <v>328</v>
+        <v>201</v>
       </c>
       <c r="D197" s="29">
-        <v>328</v>
+        <v>201</v>
       </c>
       <c r="E197" s="32"/>
       <c r="F197" s="31"/>
       <c r="G197" s="33" t="s">
-        <v>194</v>
+        <v>120</v>
       </c>
     </row>
     <row r="198" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -5341,63 +5438,1621 @@
         <v>75</v>
       </c>
       <c r="B198" s="31">
-        <v>329</v>
+        <v>202</v>
       </c>
       <c r="C198" s="28">
-        <v>329</v>
+        <v>202</v>
       </c>
       <c r="D198" s="29">
-        <v>329</v>
+        <v>202</v>
       </c>
       <c r="E198" s="32"/>
       <c r="F198" s="31"/>
       <c r="G198" s="33" t="s">
-        <v>195</v>
+        <v>121</v>
       </c>
     </row>
     <row r="199" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="32"/>
-      <c r="B199" s="31"/>
-      <c r="C199" s="28"/>
-      <c r="D199" s="29"/>
+      <c r="A199" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B199" s="31">
+        <v>203</v>
+      </c>
+      <c r="C199" s="28">
+        <v>203</v>
+      </c>
+      <c r="D199" s="29">
+        <v>203</v>
+      </c>
       <c r="E199" s="32"/>
       <c r="F199" s="31"/>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A200" s="27" t="s">
+      <c r="G199" s="33" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B200" s="31">
+        <v>204</v>
+      </c>
+      <c r="C200" s="28">
+        <v>204</v>
+      </c>
+      <c r="D200" s="29">
+        <v>204</v>
+      </c>
+      <c r="E200" s="32"/>
+      <c r="F200" s="31"/>
+      <c r="G200" s="33" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B201" s="31">
+        <v>205</v>
+      </c>
+      <c r="C201" s="28">
+        <v>205</v>
+      </c>
+      <c r="D201" s="29">
+        <v>205</v>
+      </c>
+      <c r="E201" s="32"/>
+      <c r="F201" s="31"/>
+      <c r="G201" s="33" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B202" s="31">
+        <v>206</v>
+      </c>
+      <c r="C202" s="28">
+        <v>206</v>
+      </c>
+      <c r="D202" s="29">
+        <v>206</v>
+      </c>
+      <c r="E202" s="32"/>
+      <c r="F202" s="31"/>
+      <c r="G202" s="33" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B203" s="31">
+        <v>207</v>
+      </c>
+      <c r="C203" s="28">
+        <v>207</v>
+      </c>
+      <c r="D203" s="29">
+        <v>207</v>
+      </c>
+      <c r="E203" s="32"/>
+      <c r="F203" s="31"/>
+      <c r="G203" s="33" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B204" s="31">
+        <v>208</v>
+      </c>
+      <c r="C204" s="28">
+        <v>208</v>
+      </c>
+      <c r="D204" s="29">
+        <v>208</v>
+      </c>
+      <c r="E204" s="32"/>
+      <c r="F204" s="31"/>
+      <c r="G204" s="33" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B205" s="31">
+        <v>209</v>
+      </c>
+      <c r="C205" s="28">
+        <v>209</v>
+      </c>
+      <c r="D205" s="29">
+        <v>209</v>
+      </c>
+      <c r="E205" s="32"/>
+      <c r="F205" s="31"/>
+      <c r="G205" s="33" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B206" s="31">
+        <v>210</v>
+      </c>
+      <c r="C206" s="28">
+        <v>210</v>
+      </c>
+      <c r="D206" s="29">
+        <v>210</v>
+      </c>
+      <c r="E206" s="32"/>
+      <c r="F206" s="31"/>
+      <c r="G206" s="33" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B207" s="31">
+        <v>211</v>
+      </c>
+      <c r="C207" s="28">
+        <v>211</v>
+      </c>
+      <c r="D207" s="29">
+        <v>211</v>
+      </c>
+      <c r="E207" s="32"/>
+      <c r="F207" s="31"/>
+      <c r="G207" s="33" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B208" s="31">
+        <v>212</v>
+      </c>
+      <c r="C208" s="28">
+        <v>212</v>
+      </c>
+      <c r="D208" s="29">
+        <v>212</v>
+      </c>
+      <c r="E208" s="32"/>
+      <c r="F208" s="31"/>
+      <c r="G208" s="33" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B209" s="31">
+        <v>213</v>
+      </c>
+      <c r="C209" s="28">
+        <v>213</v>
+      </c>
+      <c r="D209" s="29">
+        <v>213</v>
+      </c>
+      <c r="E209" s="32"/>
+      <c r="F209" s="31"/>
+      <c r="G209" s="33" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B210" s="31">
+        <v>214</v>
+      </c>
+      <c r="C210" s="28">
+        <v>214</v>
+      </c>
+      <c r="D210" s="29">
+        <v>214</v>
+      </c>
+      <c r="E210" s="32"/>
+      <c r="F210" s="31"/>
+      <c r="G210" s="33" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B211" s="31">
+        <v>215</v>
+      </c>
+      <c r="C211" s="28">
+        <v>215</v>
+      </c>
+      <c r="D211" s="29">
+        <v>215</v>
+      </c>
+      <c r="E211" s="32"/>
+      <c r="F211" s="31"/>
+      <c r="G211" s="33" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B212" s="31">
+        <v>216</v>
+      </c>
+      <c r="C212" s="28">
+        <v>216</v>
+      </c>
+      <c r="D212" s="29">
+        <v>216</v>
+      </c>
+      <c r="E212" s="32"/>
+      <c r="F212" s="31"/>
+      <c r="G212" s="33" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B213" s="31">
+        <v>217</v>
+      </c>
+      <c r="C213" s="28">
+        <v>217</v>
+      </c>
+      <c r="D213" s="29">
+        <v>217</v>
+      </c>
+      <c r="E213" s="32"/>
+      <c r="F213" s="31"/>
+      <c r="G213" s="33" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B214" s="31">
+        <v>218</v>
+      </c>
+      <c r="C214" s="28">
+        <v>218</v>
+      </c>
+      <c r="D214" s="29">
+        <v>218</v>
+      </c>
+      <c r="E214" s="32"/>
+      <c r="F214" s="31"/>
+      <c r="G214" s="33" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B215" s="31">
+        <v>219</v>
+      </c>
+      <c r="C215" s="28">
+        <v>219</v>
+      </c>
+      <c r="D215" s="29">
+        <v>219</v>
+      </c>
+      <c r="E215" s="32"/>
+      <c r="F215" s="31"/>
+      <c r="G215" s="33" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B216" s="31">
+        <v>220</v>
+      </c>
+      <c r="C216" s="28">
+        <v>220</v>
+      </c>
+      <c r="D216" s="29">
+        <v>220</v>
+      </c>
+      <c r="E216" s="32"/>
+      <c r="F216" s="31"/>
+      <c r="G216" s="33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B217" s="31">
+        <v>221</v>
+      </c>
+      <c r="C217" s="28">
+        <v>221</v>
+      </c>
+      <c r="D217" s="29">
+        <v>221</v>
+      </c>
+      <c r="E217" s="32"/>
+      <c r="F217" s="31"/>
+      <c r="G217" s="33" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B218" s="31">
+        <v>222</v>
+      </c>
+      <c r="C218" s="28">
+        <v>222</v>
+      </c>
+      <c r="D218" s="29">
+        <v>222</v>
+      </c>
+      <c r="E218" s="32"/>
+      <c r="F218" s="31"/>
+      <c r="G218" s="33" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B219" s="31">
+        <v>223</v>
+      </c>
+      <c r="C219" s="28">
+        <v>223</v>
+      </c>
+      <c r="D219" s="29">
+        <v>223</v>
+      </c>
+      <c r="E219" s="32"/>
+      <c r="F219" s="31"/>
+      <c r="G219" s="33" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B220" s="31">
+        <v>224</v>
+      </c>
+      <c r="C220" s="28">
+        <v>224</v>
+      </c>
+      <c r="D220" s="29">
+        <v>224</v>
+      </c>
+      <c r="E220" s="32"/>
+      <c r="F220" s="31"/>
+      <c r="G220" s="33" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B221" s="31">
+        <v>225</v>
+      </c>
+      <c r="C221" s="28">
+        <v>225</v>
+      </c>
+      <c r="D221" s="29">
+        <v>225</v>
+      </c>
+      <c r="E221" s="32"/>
+      <c r="F221" s="31"/>
+      <c r="G221" s="33" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B222" s="31">
+        <v>226</v>
+      </c>
+      <c r="C222" s="28">
+        <v>226</v>
+      </c>
+      <c r="D222" s="29">
+        <v>226</v>
+      </c>
+      <c r="E222" s="32"/>
+      <c r="F222" s="31"/>
+      <c r="G222" s="33" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B223" s="31">
+        <v>227</v>
+      </c>
+      <c r="C223" s="28">
+        <v>227</v>
+      </c>
+      <c r="D223" s="29">
+        <v>227</v>
+      </c>
+      <c r="E223" s="32"/>
+      <c r="F223" s="31"/>
+      <c r="G223" s="33" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B224" s="31">
+        <v>228</v>
+      </c>
+      <c r="C224" s="28">
+        <v>228</v>
+      </c>
+      <c r="D224" s="29">
+        <v>228</v>
+      </c>
+      <c r="E224" s="32"/>
+      <c r="F224" s="31"/>
+      <c r="G224" s="33" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B225" s="31">
+        <v>229</v>
+      </c>
+      <c r="C225" s="28">
+        <v>229</v>
+      </c>
+      <c r="D225" s="29">
+        <v>229</v>
+      </c>
+      <c r="E225" s="32"/>
+      <c r="F225" s="31"/>
+      <c r="G225" s="33" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B226" s="31">
+        <v>230</v>
+      </c>
+      <c r="C226" s="28">
+        <v>230</v>
+      </c>
+      <c r="D226" s="29">
+        <v>230</v>
+      </c>
+      <c r="E226" s="32"/>
+      <c r="F226" s="31"/>
+      <c r="G226" s="33" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B227" s="31">
+        <v>231</v>
+      </c>
+      <c r="C227" s="28">
+        <v>231</v>
+      </c>
+      <c r="D227" s="29">
+        <v>231</v>
+      </c>
+      <c r="E227" s="32"/>
+      <c r="F227" s="31"/>
+      <c r="G227" s="33" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B228" s="31">
+        <v>232</v>
+      </c>
+      <c r="C228" s="28">
+        <v>232</v>
+      </c>
+      <c r="D228" s="29">
+        <v>232</v>
+      </c>
+      <c r="E228" s="32"/>
+      <c r="F228" s="31"/>
+      <c r="G228" s="33" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B229" s="31">
+        <v>233</v>
+      </c>
+      <c r="C229" s="28">
+        <v>233</v>
+      </c>
+      <c r="D229" s="29">
+        <v>233</v>
+      </c>
+      <c r="E229" s="32"/>
+      <c r="F229" s="31"/>
+      <c r="G229" s="33" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B230" s="31">
+        <v>234</v>
+      </c>
+      <c r="C230" s="28">
+        <v>234</v>
+      </c>
+      <c r="D230" s="29">
+        <v>234</v>
+      </c>
+      <c r="E230" s="32"/>
+      <c r="F230" s="31"/>
+      <c r="G230" s="33" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B231" s="31">
+        <v>235</v>
+      </c>
+      <c r="C231" s="28">
+        <v>235</v>
+      </c>
+      <c r="D231" s="29">
+        <v>235</v>
+      </c>
+      <c r="E231" s="32"/>
+      <c r="F231" s="31"/>
+      <c r="G231" s="33" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B232" s="31">
+        <v>236</v>
+      </c>
+      <c r="C232" s="28">
+        <v>236</v>
+      </c>
+      <c r="D232" s="29">
+        <v>236</v>
+      </c>
+      <c r="E232" s="32"/>
+      <c r="F232" s="31"/>
+      <c r="G232" s="33" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B233" s="31">
+        <v>237</v>
+      </c>
+      <c r="C233" s="28">
+        <v>237</v>
+      </c>
+      <c r="D233" s="29">
+        <v>237</v>
+      </c>
+      <c r="E233" s="32"/>
+      <c r="F233" s="31"/>
+      <c r="G233" s="33" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B234" s="31">
+        <v>238</v>
+      </c>
+      <c r="C234" s="28">
+        <v>238</v>
+      </c>
+      <c r="D234" s="29">
+        <v>238</v>
+      </c>
+      <c r="E234" s="32"/>
+      <c r="F234" s="31"/>
+      <c r="G234" s="33" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B235" s="31">
+        <v>239</v>
+      </c>
+      <c r="C235" s="28">
+        <v>239</v>
+      </c>
+      <c r="D235" s="29">
+        <v>239</v>
+      </c>
+      <c r="E235" s="32"/>
+      <c r="F235" s="31"/>
+      <c r="G235" s="33" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B236" s="31">
+        <v>240</v>
+      </c>
+      <c r="C236" s="28">
+        <v>240</v>
+      </c>
+      <c r="D236" s="29">
+        <v>240</v>
+      </c>
+      <c r="E236" s="32"/>
+      <c r="F236" s="31"/>
+      <c r="G236" s="33" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B237" s="31">
+        <v>241</v>
+      </c>
+      <c r="C237" s="28">
+        <v>241</v>
+      </c>
+      <c r="D237" s="29">
+        <v>241</v>
+      </c>
+      <c r="E237" s="32"/>
+      <c r="F237" s="31"/>
+      <c r="G237" s="33" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B238" s="31">
+        <v>242</v>
+      </c>
+      <c r="C238" s="28">
+        <v>242</v>
+      </c>
+      <c r="D238" s="29">
+        <v>242</v>
+      </c>
+      <c r="E238" s="32"/>
+      <c r="F238" s="31"/>
+      <c r="G238" s="33" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A239" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B239" s="31">
+        <v>243</v>
+      </c>
+      <c r="C239" s="28">
+        <v>243</v>
+      </c>
+      <c r="D239" s="29">
+        <v>243</v>
+      </c>
+      <c r="E239" s="32"/>
+      <c r="F239" s="31"/>
+      <c r="G239" s="33" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A240" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B240" s="31">
+        <v>244</v>
+      </c>
+      <c r="C240" s="28">
+        <v>244</v>
+      </c>
+      <c r="D240" s="29">
+        <v>244</v>
+      </c>
+      <c r="E240" s="32"/>
+      <c r="F240" s="31"/>
+      <c r="G240" s="33" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B241" s="31">
+        <v>300</v>
+      </c>
+      <c r="C241" s="28">
+        <v>300</v>
+      </c>
+      <c r="D241" s="29">
+        <v>300</v>
+      </c>
+      <c r="E241" s="32"/>
+      <c r="F241" s="31"/>
+      <c r="G241" s="33" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A242" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B242" s="31">
+        <v>301</v>
+      </c>
+      <c r="C242" s="28">
+        <v>301</v>
+      </c>
+      <c r="D242" s="29">
+        <v>301</v>
+      </c>
+      <c r="E242" s="32"/>
+      <c r="F242" s="31"/>
+      <c r="G242" s="33" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A243" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B243" s="31">
+        <v>302</v>
+      </c>
+      <c r="C243" s="28">
+        <v>302</v>
+      </c>
+      <c r="D243" s="29">
+        <v>302</v>
+      </c>
+      <c r="E243" s="32"/>
+      <c r="F243" s="31"/>
+      <c r="G243" s="33" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A244" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B244" s="31">
+        <v>303</v>
+      </c>
+      <c r="C244" s="28">
+        <v>303</v>
+      </c>
+      <c r="D244" s="29">
+        <v>303</v>
+      </c>
+      <c r="E244" s="32"/>
+      <c r="F244" s="31"/>
+      <c r="G244" s="33" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A245" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B245" s="31">
+        <v>304</v>
+      </c>
+      <c r="C245" s="28">
+        <v>304</v>
+      </c>
+      <c r="D245" s="29">
+        <v>304</v>
+      </c>
+      <c r="E245" s="32"/>
+      <c r="F245" s="31"/>
+      <c r="G245" s="33" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A246" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B246" s="31">
+        <v>305</v>
+      </c>
+      <c r="C246" s="28">
+        <v>305</v>
+      </c>
+      <c r="D246" s="29">
+        <v>305</v>
+      </c>
+      <c r="E246" s="32"/>
+      <c r="F246" s="31"/>
+      <c r="G246" s="33" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B247" s="31">
+        <v>306</v>
+      </c>
+      <c r="C247" s="28">
+        <v>306</v>
+      </c>
+      <c r="D247" s="29">
+        <v>306</v>
+      </c>
+      <c r="E247" s="32"/>
+      <c r="F247" s="31"/>
+      <c r="G247" s="33" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A248" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B248" s="31">
+        <v>307</v>
+      </c>
+      <c r="C248" s="28">
+        <v>307</v>
+      </c>
+      <c r="D248" s="29">
+        <v>307</v>
+      </c>
+      <c r="E248" s="32"/>
+      <c r="F248" s="31"/>
+      <c r="G248" s="33" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A249" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B249" s="31">
+        <v>308</v>
+      </c>
+      <c r="C249" s="28">
+        <v>308</v>
+      </c>
+      <c r="D249" s="29">
+        <v>308</v>
+      </c>
+      <c r="E249" s="32"/>
+      <c r="F249" s="31"/>
+      <c r="G249" s="33" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A250" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B250" s="31">
+        <v>309</v>
+      </c>
+      <c r="C250" s="28">
+        <v>309</v>
+      </c>
+      <c r="D250" s="29">
+        <v>309</v>
+      </c>
+      <c r="E250" s="32"/>
+      <c r="F250" s="31"/>
+      <c r="G250" s="33" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A251" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B251" s="31">
+        <v>310</v>
+      </c>
+      <c r="C251" s="28">
+        <v>310</v>
+      </c>
+      <c r="D251" s="29">
+        <v>310</v>
+      </c>
+      <c r="E251" s="32"/>
+      <c r="F251" s="31"/>
+      <c r="G251" s="33" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A252" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B252" s="31">
+        <v>311</v>
+      </c>
+      <c r="C252" s="28">
+        <v>311</v>
+      </c>
+      <c r="D252" s="29">
+        <v>311</v>
+      </c>
+      <c r="E252" s="32"/>
+      <c r="F252" s="31"/>
+      <c r="G252" s="33" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A253" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B253" s="31">
+        <v>312</v>
+      </c>
+      <c r="C253" s="28">
+        <v>312</v>
+      </c>
+      <c r="D253" s="29">
+        <v>312</v>
+      </c>
+      <c r="E253" s="32"/>
+      <c r="F253" s="31"/>
+      <c r="G253" s="33" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A254" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B254" s="31">
+        <v>313</v>
+      </c>
+      <c r="C254" s="28">
+        <v>313</v>
+      </c>
+      <c r="D254" s="29">
+        <v>313</v>
+      </c>
+      <c r="E254" s="32"/>
+      <c r="F254" s="31"/>
+      <c r="G254" s="33" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A255" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B255" s="31">
+        <v>314</v>
+      </c>
+      <c r="C255" s="28">
+        <v>314</v>
+      </c>
+      <c r="D255" s="29">
+        <v>314</v>
+      </c>
+      <c r="E255" s="32"/>
+      <c r="F255" s="31"/>
+      <c r="G255" s="33" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A256" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B256" s="31">
+        <v>315</v>
+      </c>
+      <c r="C256" s="28">
+        <v>315</v>
+      </c>
+      <c r="D256" s="29">
+        <v>315</v>
+      </c>
+      <c r="E256" s="32"/>
+      <c r="F256" s="31"/>
+      <c r="G256" s="33" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A257" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B257" s="31">
+        <v>316</v>
+      </c>
+      <c r="C257" s="28">
+        <v>316</v>
+      </c>
+      <c r="D257" s="29">
+        <v>316</v>
+      </c>
+      <c r="E257" s="32"/>
+      <c r="F257" s="31"/>
+      <c r="G257" s="33" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A258" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B258" s="31">
+        <v>317</v>
+      </c>
+      <c r="C258" s="28">
+        <v>317</v>
+      </c>
+      <c r="D258" s="29">
+        <v>317</v>
+      </c>
+      <c r="E258" s="32"/>
+      <c r="F258" s="31"/>
+      <c r="G258" s="33" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A259" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B259" s="31">
+        <v>318</v>
+      </c>
+      <c r="C259" s="28">
+        <v>318</v>
+      </c>
+      <c r="D259" s="29">
+        <v>318</v>
+      </c>
+      <c r="E259" s="32"/>
+      <c r="F259" s="31"/>
+      <c r="G259" s="33" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A260" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B260" s="31">
+        <v>319</v>
+      </c>
+      <c r="C260" s="28">
+        <v>319</v>
+      </c>
+      <c r="D260" s="29">
+        <v>319</v>
+      </c>
+      <c r="E260" s="32"/>
+      <c r="F260" s="31"/>
+      <c r="G260" s="33" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B261" s="31">
+        <v>320</v>
+      </c>
+      <c r="C261" s="28">
+        <v>320</v>
+      </c>
+      <c r="D261" s="29">
+        <v>320</v>
+      </c>
+      <c r="E261" s="32"/>
+      <c r="F261" s="31"/>
+      <c r="G261" s="33" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A262" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B262" s="31">
+        <v>321</v>
+      </c>
+      <c r="C262" s="28">
+        <v>321</v>
+      </c>
+      <c r="D262" s="29">
+        <v>321</v>
+      </c>
+      <c r="E262" s="32"/>
+      <c r="F262" s="31"/>
+      <c r="G262" s="33" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A263" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B263" s="31">
+        <v>322</v>
+      </c>
+      <c r="C263" s="28">
+        <v>322</v>
+      </c>
+      <c r="D263" s="29">
+        <v>322</v>
+      </c>
+      <c r="E263" s="32"/>
+      <c r="F263" s="31"/>
+      <c r="G263" s="33" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A264" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B264" s="31">
+        <v>323</v>
+      </c>
+      <c r="C264" s="28">
+        <v>323</v>
+      </c>
+      <c r="D264" s="29">
+        <v>323</v>
+      </c>
+      <c r="E264" s="32"/>
+      <c r="F264" s="31"/>
+      <c r="G264" s="33" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A265" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B265" s="31">
+        <v>324</v>
+      </c>
+      <c r="C265" s="28">
+        <v>324</v>
+      </c>
+      <c r="D265" s="29">
+        <v>324</v>
+      </c>
+      <c r="E265" s="32"/>
+      <c r="F265" s="31"/>
+      <c r="G265" s="33" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A266" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B266" s="31">
+        <v>325</v>
+      </c>
+      <c r="C266" s="28">
+        <v>325</v>
+      </c>
+      <c r="D266" s="29">
+        <v>325</v>
+      </c>
+      <c r="E266" s="32"/>
+      <c r="F266" s="31"/>
+      <c r="G266" s="33" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A267" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B267" s="31">
+        <v>326</v>
+      </c>
+      <c r="C267" s="28">
+        <v>326</v>
+      </c>
+      <c r="D267" s="29">
+        <v>326</v>
+      </c>
+      <c r="E267" s="32"/>
+      <c r="F267" s="31"/>
+      <c r="G267" s="33" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A268" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B268" s="31">
+        <v>327</v>
+      </c>
+      <c r="C268" s="28">
+        <v>327</v>
+      </c>
+      <c r="D268" s="29">
+        <v>327</v>
+      </c>
+      <c r="E268" s="32"/>
+      <c r="F268" s="31"/>
+      <c r="G268" s="33" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A269" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B269" s="31">
+        <v>328</v>
+      </c>
+      <c r="C269" s="28">
+        <v>328</v>
+      </c>
+      <c r="D269" s="29">
+        <v>328</v>
+      </c>
+      <c r="E269" s="32"/>
+      <c r="F269" s="31"/>
+      <c r="G269" s="33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A270" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B270" s="31">
+        <v>329</v>
+      </c>
+      <c r="C270" s="28">
+        <v>329</v>
+      </c>
+      <c r="D270" s="29">
+        <v>329</v>
+      </c>
+      <c r="E270" s="32"/>
+      <c r="F270" s="31"/>
+      <c r="G270" s="33" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A271" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B271" s="31">
+        <v>330</v>
+      </c>
+      <c r="C271" s="28">
+        <v>330</v>
+      </c>
+      <c r="D271" s="29">
+        <v>330</v>
+      </c>
+      <c r="E271" s="32"/>
+      <c r="F271" s="31"/>
+      <c r="G271" s="33" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A272" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B272" s="31">
+        <v>331</v>
+      </c>
+      <c r="C272" s="28">
+        <v>331</v>
+      </c>
+      <c r="D272" s="29">
+        <v>331</v>
+      </c>
+      <c r="E272" s="32"/>
+      <c r="F272" s="31"/>
+      <c r="G272" s="33" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A273" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B273" s="31">
+        <v>332</v>
+      </c>
+      <c r="C273" s="28">
+        <v>332</v>
+      </c>
+      <c r="D273" s="29">
+        <v>332</v>
+      </c>
+      <c r="E273" s="32"/>
+      <c r="F273" s="31"/>
+      <c r="G273" s="33" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A274" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B274" s="31">
+        <v>333</v>
+      </c>
+      <c r="C274" s="28">
+        <v>333</v>
+      </c>
+      <c r="D274" s="29">
+        <v>333</v>
+      </c>
+      <c r="E274" s="32"/>
+      <c r="F274" s="31"/>
+      <c r="G274" s="33" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A275" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B275" s="31">
+        <v>334</v>
+      </c>
+      <c r="C275" s="28">
+        <v>334</v>
+      </c>
+      <c r="D275" s="29">
+        <v>334</v>
+      </c>
+      <c r="E275" s="32"/>
+      <c r="F275" s="31"/>
+      <c r="G275" s="33" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A276" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B276" s="31">
+        <v>335</v>
+      </c>
+      <c r="C276" s="28">
+        <v>335</v>
+      </c>
+      <c r="D276" s="29">
+        <v>335</v>
+      </c>
+      <c r="E276" s="32"/>
+      <c r="F276" s="31"/>
+      <c r="G276" s="33" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A277" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B277" s="31">
+        <v>336</v>
+      </c>
+      <c r="C277" s="28">
+        <v>336</v>
+      </c>
+      <c r="D277" s="29">
+        <v>336</v>
+      </c>
+      <c r="E277" s="32"/>
+      <c r="F277" s="31"/>
+      <c r="G277" s="33" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A278" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B278" s="31">
+        <v>337</v>
+      </c>
+      <c r="C278" s="28">
+        <v>337</v>
+      </c>
+      <c r="D278" s="29">
+        <v>337</v>
+      </c>
+      <c r="E278" s="32"/>
+      <c r="F278" s="31"/>
+      <c r="G278" s="33" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A279" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B279" s="31">
+        <v>338</v>
+      </c>
+      <c r="C279" s="28">
+        <v>338</v>
+      </c>
+      <c r="D279" s="29">
+        <v>338</v>
+      </c>
+      <c r="E279" s="32"/>
+      <c r="F279" s="31"/>
+      <c r="G279" s="33" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A280" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B280" s="31">
+        <v>339</v>
+      </c>
+      <c r="C280" s="28">
+        <v>339</v>
+      </c>
+      <c r="D280" s="29">
+        <v>339</v>
+      </c>
+      <c r="E280" s="32"/>
+      <c r="F280" s="31"/>
+      <c r="G280" s="33" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A281" s="32"/>
+      <c r="B281" s="31"/>
+      <c r="C281" s="28"/>
+      <c r="D281" s="29"/>
+      <c r="E281" s="32"/>
+      <c r="F281" s="31"/>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A282" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="B200" s="24" t="s">
+      <c r="B282" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C200" s="25" t="s">
+      <c r="C282" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="D200" s="26" t="s">
+      <c r="D282" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="E200" s="24"/>
-      <c r="F200" s="34"/>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A201" s="27" t="s">
+      <c r="E282" s="24"/>
+      <c r="F282" s="34"/>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A283" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="B201" s="24" t="s">
+      <c r="B283" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="C201" s="25" t="s">
+      <c r="C283" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="D201" s="26" t="s">
+      <c r="D283" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="E201" s="24"/>
-      <c r="F201" s="34"/>
+      <c r="E283" s="24"/>
+      <c r="F283" s="34"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A172:G199">
-    <sortCondition ref="B172:B199"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A214:G279">
+    <sortCondition ref="B214:B279"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5434,10 +7089,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>84</v>
+        <v>217</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>216</v>
       </c>
       <c r="C2">
         <v>20210114</v>
